--- a/vendors.xlsx
+++ b/vendors.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\2.Documents\Allison Heating &amp; Air\Bank_Recs\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\Desktop\School\Virtual Enviornment and Py\Zag2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC6D7625-49A0-45B2-992E-B088528B1B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97F02822-A7B6-42A1-8A61-0A610C72D48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-11010" windowWidth="16440" windowHeight="28320" xr2:uid="{41402197-6270-4D3C-94F7-7D89B3A15A74}"/>
+    <workbookView xWindow="-16320" yWindow="-11010" windowWidth="16440" windowHeight="28320" xr2:uid="{9067FDC8-68C8-4DFF-9FA6-E32BDAFF9E34}"/>
   </bookViews>
   <sheets>
-    <sheet name="vendors.AAC-7653.2026-01-09.06-" sheetId="1" r:id="rId1"/>
+    <sheet name="vendors.PGS-6164.2026-01-12.02-" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="424">
   <si>
     <t xml:space="preserve"> Vendor #</t>
   </si>
@@ -67,364 +67,1231 @@
     <t xml:space="preserve"> Dept Code</t>
   </si>
   <si>
-    <t>AC Pro</t>
-  </si>
-  <si>
-    <t>Ace Electric</t>
-  </si>
-  <si>
-    <t>Additonal Pr Taxes Paid</t>
-  </si>
-  <si>
-    <t>Anthony S Gutierrez</t>
-  </si>
-  <si>
-    <t>Arco</t>
-  </si>
-  <si>
-    <t>Armando Glavez Jr</t>
-  </si>
-  <si>
-    <t>Ars</t>
-  </si>
-  <si>
-    <t>At&amp;t</t>
-  </si>
-  <si>
-    <t>BDM Fabrications</t>
-  </si>
-  <si>
-    <t>Benson Crane</t>
-  </si>
-  <si>
-    <t>Bits Bytes &amp; Nibble</t>
-  </si>
-  <si>
-    <t>Bohemian Mechanical</t>
-  </si>
-  <si>
-    <t>Bradford Hale</t>
-  </si>
-  <si>
-    <t>Budget Uniform</t>
-  </si>
-  <si>
-    <t>Bytes &amp; Nibbles</t>
-  </si>
-  <si>
-    <t>Carrier Corporation</t>
-  </si>
-  <si>
-    <t>Cdtfa</t>
-  </si>
-  <si>
-    <t>Cdtfa Fines</t>
-  </si>
-  <si>
-    <t>Ced</t>
-  </si>
-  <si>
-    <t>Chase Truck Mobile</t>
+    <t>7-Eleven</t>
+  </si>
+  <si>
+    <t>8Us Lic Riverside</t>
+  </si>
+  <si>
+    <t>AAA Glendora</t>
+  </si>
+  <si>
+    <t>Abbys Cafe</t>
+  </si>
+  <si>
+    <t>Abbys Legendary Pizza</t>
+  </si>
+  <si>
+    <t>Abelinos Mexican Food</t>
+  </si>
+  <si>
+    <t>Accountantsworld Acctverify</t>
+  </si>
+  <si>
+    <t>Accumulators Inc</t>
+  </si>
+  <si>
+    <t>Ace Hardware</t>
+  </si>
+  <si>
+    <t>Action Gypsum Supply</t>
+  </si>
+  <si>
+    <t>Adp Payroll Fees</t>
+  </si>
+  <si>
+    <t>Advance Auto Parts</t>
+  </si>
+  <si>
+    <t>Aibertos Mexican Food</t>
+  </si>
+  <si>
+    <t>Air &amp; Hose Source</t>
+  </si>
+  <si>
+    <t>Airbnb</t>
+  </si>
+  <si>
+    <t>Albertos Mexican Food</t>
+  </si>
+  <si>
+    <t>Alex Auto Electric</t>
+  </si>
+  <si>
+    <t>Alex Cortez</t>
+  </si>
+  <si>
+    <t>Alexis I Cortez</t>
+  </si>
+  <si>
+    <t>All Purpose Rentals</t>
+  </si>
+  <si>
+    <t>Alternative Hose Inc</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>American Roadtrip</t>
+  </si>
+  <si>
+    <t>American Shotcrete Association</t>
+  </si>
+  <si>
+    <t>Angelinas Italian</t>
+  </si>
+  <si>
+    <t>Angelos Burgers</t>
+  </si>
+  <si>
+    <t>Arizona Motor Vehicle Division</t>
+  </si>
+  <si>
+    <t>Armando Avalos</t>
+  </si>
+  <si>
+    <t>Armando's Mexican Food</t>
+  </si>
+  <si>
+    <t>Assessor Clerk Recorder</t>
+  </si>
+  <si>
+    <t>Auto Air Pro</t>
+  </si>
+  <si>
+    <t>Autozone</t>
+  </si>
+  <si>
+    <t>Avis Rent-A-Car</t>
+  </si>
+  <si>
+    <t>B &amp; M Equip Rental</t>
+  </si>
+  <si>
+    <t>B &amp; R Enterprises</t>
+  </si>
+  <si>
+    <t>B of A - CC 3728</t>
+  </si>
+  <si>
+    <t>Bakers</t>
+  </si>
+  <si>
+    <t>Bank of America</t>
+  </si>
+  <si>
+    <t>Bashas</t>
+  </si>
+  <si>
+    <t>Baskin Robbins</t>
+  </si>
+  <si>
+    <t>Bb Diner</t>
+  </si>
+  <si>
+    <t>Becs Pacific Ltd</t>
+  </si>
+  <si>
+    <t>Bender Ready Mix Concrete</t>
+  </si>
+  <si>
+    <t>Best Buy</t>
+  </si>
+  <si>
+    <t>Best Lumber And Hardware</t>
+  </si>
+  <si>
+    <t>Betts Company</t>
+  </si>
+  <si>
+    <t>Big 5 Sporting Goods</t>
+  </si>
+  <si>
+    <t>Big Lots Stores</t>
+  </si>
+  <si>
+    <t>Big Time Design</t>
+  </si>
+  <si>
+    <t>Bj Restaurant</t>
+  </si>
+  <si>
+    <t>Black Bear Diner</t>
+  </si>
+  <si>
+    <t>Brian Wilcox</t>
+  </si>
+  <si>
+    <t>Brigido Jimenez</t>
+  </si>
+  <si>
+    <t>Btlpntgrs.Com</t>
+  </si>
+  <si>
+    <t>Burger King</t>
+  </si>
+  <si>
+    <t>Buy Door Hardware Now</t>
+  </si>
+  <si>
+    <t>Buy Truck Wheels</t>
+  </si>
+  <si>
+    <t>CA Air Resources Board</t>
+  </si>
+  <si>
+    <t>Ca Secretary Of State</t>
+  </si>
+  <si>
+    <t>Ca State Dispursement Unit</t>
+  </si>
+  <si>
+    <t>Cable Ties And More</t>
+  </si>
+  <si>
+    <t>Cal Mesa Steel Supply</t>
+  </si>
+  <si>
+    <t>California Choice</t>
+  </si>
+  <si>
+    <t>California Choice Benefit Admin</t>
+  </si>
+  <si>
+    <t>California State Disbursement</t>
+  </si>
+  <si>
+    <t>California Tool and Welding Supply</t>
+  </si>
+  <si>
+    <t>Calimesa Inn Motel</t>
+  </si>
+  <si>
+    <t>Cameron Welding Supply</t>
+  </si>
+  <si>
+    <t>Campbell Ready Mix</t>
+  </si>
+  <si>
+    <t>Canyon Lake Market</t>
+  </si>
+  <si>
+    <t>Cardenas</t>
+  </si>
+  <si>
+    <t>Cardenas Markets</t>
+  </si>
+  <si>
+    <t>Carlos Gomez</t>
+  </si>
+  <si>
+    <t>Carls Jr</t>
+  </si>
+  <si>
+    <t>Carousel Checks</t>
+  </si>
+  <si>
+    <t>Casa Jimenez</t>
+  </si>
+  <si>
+    <t>Casa Trejo Restaurant</t>
+  </si>
+  <si>
+    <t>Cattlemens</t>
+  </si>
+  <si>
+    <t>CC Payment to 300</t>
+  </si>
+  <si>
+    <t>Cci Hotel Res</t>
+  </si>
+  <si>
+    <t>Champion Chisel Works</t>
+  </si>
+  <si>
+    <t>Cheap Sprinklers</t>
+  </si>
+  <si>
+    <t>Chevron</t>
+  </si>
+  <si>
+    <t>Chick-Fil-A</t>
+  </si>
+  <si>
+    <t>Chipotle</t>
   </si>
   <si>
     <t>Choice Admin</t>
   </si>
   <si>
-    <t>Citi Cards</t>
-  </si>
-  <si>
-    <t>City Electric Supply</t>
-  </si>
-  <si>
-    <t>City Of Corona</t>
-  </si>
-  <si>
-    <t>City Of Fontana</t>
-  </si>
-  <si>
-    <t>City Of Jurupa Valley</t>
-  </si>
-  <si>
-    <t>City Of Norco</t>
-  </si>
-  <si>
-    <t>City of Ontario</t>
-  </si>
-  <si>
-    <t>City of Riverside</t>
-  </si>
-  <si>
-    <t>Coast Appliances</t>
-  </si>
-  <si>
-    <t>Contractors State License</t>
-  </si>
-  <si>
-    <t>Corona Alarm Program</t>
-  </si>
-  <si>
-    <t>Currency Deposit Furnished</t>
-  </si>
-  <si>
-    <t>Custom Excel Spreadsheets</t>
-  </si>
-  <si>
-    <t>Daikin</t>
-  </si>
-  <si>
-    <t>Daniel Gonzalez</t>
-  </si>
-  <si>
-    <t>DCS Print Shop</t>
-  </si>
-  <si>
-    <t>Diamond Air Service</t>
-  </si>
-  <si>
-    <t>DJ Neal Construction</t>
+    <t>Chris Burgers</t>
+  </si>
+  <si>
+    <t>Circle K</t>
+  </si>
+  <si>
+    <t>City of Beaumont</t>
+  </si>
+  <si>
+    <t>City Of Glendora</t>
+  </si>
+  <si>
+    <t>City of Norco</t>
+  </si>
+  <si>
+    <t>City of Redlands</t>
+  </si>
+  <si>
+    <t>City of Yucaipa</t>
+  </si>
+  <si>
+    <t>Clarkies Diner</t>
+  </si>
+  <si>
+    <t>Clarkie's Diner</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Cobb's Printing Llc</t>
+  </si>
+  <si>
+    <t>Cold Stone Creamery</t>
+  </si>
+  <si>
+    <t>Colton Surveying Instruments</t>
+  </si>
+  <si>
+    <t>Computer Heads</t>
+  </si>
+  <si>
+    <t>Concrete Pump Supply</t>
+  </si>
+  <si>
+    <t>Concrete Tools &amp; More</t>
+  </si>
+  <si>
+    <t>Consuelo's Home Style Mexican Food</t>
+  </si>
+  <si>
+    <t>Corkill, Susanne</t>
+  </si>
+  <si>
+    <t>Corkys Kitchen</t>
+  </si>
+  <si>
+    <t>Cornerstone BBQ</t>
+  </si>
+  <si>
+    <t>Corona Concrete</t>
+  </si>
+  <si>
+    <t>Cortez, Alex</t>
+  </si>
+  <si>
+    <t>Costco</t>
+  </si>
+  <si>
+    <t>County Line</t>
+  </si>
+  <si>
+    <t>Cowgirl Cafe</t>
+  </si>
+  <si>
+    <t>Coyne Powersports</t>
+  </si>
+  <si>
+    <t>Crown Ace Hardware</t>
+  </si>
+  <si>
+    <t>Cslb</t>
+  </si>
+  <si>
+    <t>Culvers</t>
+  </si>
+  <si>
+    <t>Cummins Inc</t>
+  </si>
+  <si>
+    <t>Customer Withdrawal</t>
+  </si>
+  <si>
+    <t>D &amp; D Installers</t>
+  </si>
+  <si>
+    <t>Dairy Queen</t>
+  </si>
+  <si>
+    <t>Dallas General Wholesale</t>
+  </si>
+  <si>
+    <t>Del Mar Grill</t>
+  </si>
+  <si>
+    <t>Del Taco</t>
+  </si>
+  <si>
+    <t>Dell Sales &amp; Service</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Delta Airlines</t>
+  </si>
+  <si>
+    <t>Dennys</t>
+  </si>
+  <si>
+    <t>Diesel Emissions Direct</t>
+  </si>
+  <si>
+    <t>Diesel Laptops</t>
+  </si>
+  <si>
+    <t>Dinosaur Tire</t>
+  </si>
+  <si>
+    <t>Dirt Tek</t>
+  </si>
+  <si>
+    <t>DISA</t>
+  </si>
+  <si>
+    <t>Disa Global Solutions Inc.</t>
+  </si>
+  <si>
+    <t>Discount Hydraulic Hose</t>
   </si>
   <si>
     <t>DMV</t>
   </si>
   <si>
-    <t>Donco Business</t>
-  </si>
-  <si>
-    <t>El Cheapo Lifts</t>
-  </si>
-  <si>
-    <t>Elite Roofing Supply</t>
-  </si>
-  <si>
-    <t>Emily Allison</t>
-  </si>
-  <si>
-    <t>Expertpay</t>
-  </si>
-  <si>
-    <t>Ferguson Enterprise</t>
-  </si>
-  <si>
-    <t>Fernando Godinho</t>
-  </si>
-  <si>
-    <t>Fictitious Business</t>
-  </si>
-  <si>
-    <t>First Insurance</t>
-  </si>
-  <si>
-    <t>Fleetcor Funding</t>
+    <t>Dollartree</t>
+  </si>
+  <si>
+    <t>Domenico's Italian Kitchen</t>
+  </si>
+  <si>
+    <t>Dominguez, Alejandro</t>
+  </si>
+  <si>
+    <t>Dot Filer</t>
+  </si>
+  <si>
+    <t>Dotprocessingservice</t>
+  </si>
+  <si>
+    <t>Dunkin Donuts</t>
+  </si>
+  <si>
+    <t>Dyno Motorsports</t>
+  </si>
+  <si>
+    <t>Ebay</t>
+  </si>
+  <si>
+    <t>El Burrito</t>
+  </si>
+  <si>
+    <t>El Molino De Oro</t>
+  </si>
+  <si>
+    <t>El Paraiso Family Mexican</t>
+  </si>
+  <si>
+    <t>El Super</t>
+  </si>
+  <si>
+    <t>Elkhorn General Store</t>
+  </si>
+  <si>
+    <t>Enterprise Rent-A-Car</t>
+  </si>
+  <si>
+    <t>Eric Sosa</t>
+  </si>
+  <si>
+    <t>Evacuumstore</t>
+  </si>
+  <si>
+    <t>Evolqua Water Technologies</t>
+  </si>
+  <si>
+    <t>Evolve Vacation Rental</t>
+  </si>
+  <si>
+    <t>Evoqua Water Technologies</t>
+  </si>
+  <si>
+    <t>Evoqua Water Technology</t>
+  </si>
+  <si>
+    <t>Ewing Irrigation</t>
+  </si>
+  <si>
+    <t>Expedia</t>
+  </si>
+  <si>
+    <t>Expert Diesel Parts</t>
+  </si>
+  <si>
+    <t>Exxon Circle K</t>
+  </si>
+  <si>
+    <t>Fantastic Tools</t>
+  </si>
+  <si>
+    <t>Fastrip</t>
+  </si>
+  <si>
+    <t>FedEx</t>
+  </si>
+  <si>
+    <t>Finance Charge</t>
+  </si>
+  <si>
+    <t>Find It Parts</t>
+  </si>
+  <si>
+    <t>First Lineage Site Services</t>
+  </si>
+  <si>
+    <t>Fleet Services</t>
+  </si>
+  <si>
+    <t>FleetPride</t>
+  </si>
+  <si>
+    <t>Flo's Airport Cafe</t>
+  </si>
+  <si>
+    <t>Flyers Energy</t>
+  </si>
+  <si>
+    <t>Fontana Radiators</t>
+  </si>
+  <si>
+    <t>Forklift Parts Supply</t>
+  </si>
+  <si>
+    <t>Foundation Building Materials</t>
   </si>
   <si>
     <t>Franchise Tax Board</t>
   </si>
   <si>
-    <t>Franks German Auto</t>
-  </si>
-  <si>
-    <t>Frank's German Auto</t>
-  </si>
-  <si>
-    <t>Freddie Jimenez</t>
-  </si>
-  <si>
-    <t>Fred's Glass &amp; Mirror</t>
-  </si>
-  <si>
-    <t>Futa Taxes Paid</t>
-  </si>
-  <si>
-    <t>Ganahl Lumber Co</t>
-  </si>
-  <si>
-    <t>Gilbert Kitching</t>
-  </si>
-  <si>
-    <t>Grainger</t>
-  </si>
-  <si>
-    <t>Harland Clarke</t>
-  </si>
-  <si>
-    <t>Health Equity</t>
-  </si>
-  <si>
-    <t>Heating &amp; Cooling</t>
-  </si>
-  <si>
-    <t>Horizon Water</t>
-  </si>
-  <si>
-    <t>Icw Group</t>
-  </si>
-  <si>
-    <t>Insurelinx</t>
-  </si>
-  <si>
-    <t>Johnstone Supply</t>
-  </si>
-  <si>
-    <t>Joshua Gurdian</t>
-  </si>
-  <si>
-    <t>Katie M Allison</t>
-  </si>
-  <si>
-    <t>Koujah Consulting</t>
-  </si>
-  <si>
-    <t>Lakewood Alarm</t>
-  </si>
-  <si>
-    <t>Lennox</t>
-  </si>
-  <si>
-    <t>Liberty Mutual</t>
+    <t>Freddy's Tacos</t>
+  </si>
+  <si>
+    <t>Freedom Petro Inc</t>
+  </si>
+  <si>
+    <t>Full Source</t>
+  </si>
+  <si>
+    <t>FUTA Taxes Paid</t>
+  </si>
+  <si>
+    <t>G &amp; J Aircraft</t>
+  </si>
+  <si>
+    <t>Gails Speedometer Service</t>
+  </si>
+  <si>
+    <t>Gawfco Westley</t>
+  </si>
+  <si>
+    <t>George's Market</t>
+  </si>
+  <si>
+    <t>Gibbs Wire And Steel</t>
+  </si>
+  <si>
+    <t>Goodys Cafe</t>
+  </si>
+  <si>
+    <t>Google Store</t>
+  </si>
+  <si>
+    <t>Gtstr Llc</t>
+  </si>
+  <si>
+    <t>Gypsum Supply</t>
+  </si>
+  <si>
+    <t>Habit Burger</t>
+  </si>
+  <si>
+    <t>Harbor Freight Tools</t>
+  </si>
+  <si>
+    <t>Harkins</t>
+  </si>
+  <si>
+    <t>Harleyz And Hot Rodz</t>
+  </si>
+  <si>
+    <t>Harlows Kitchen Concepts</t>
+  </si>
+  <si>
+    <t>Hemet Valley Tool</t>
+  </si>
+  <si>
+    <t>Henrys Locksmith Llc</t>
+  </si>
+  <si>
+    <t>Hi Grade Materials</t>
+  </si>
+  <si>
+    <t>Hokkaido</t>
+  </si>
+  <si>
+    <t>Holiday Rock</t>
+  </si>
+  <si>
+    <t>Homer Aguilar</t>
+  </si>
+  <si>
+    <t>Hooker Creek Construction Materials</t>
+  </si>
+  <si>
+    <t>Hose &amp; Equipment</t>
+  </si>
+  <si>
+    <t>Hose Specialist Riverside Ca</t>
+  </si>
+  <si>
+    <t>Howard Industries</t>
+  </si>
+  <si>
+    <t>Hydraulic Controls Inc</t>
+  </si>
+  <si>
+    <t>i-Consolutions.Com</t>
+  </si>
+  <si>
+    <t>Icontractor.Net</t>
+  </si>
+  <si>
+    <t>Icontractor.Net 800-245-4533 Az</t>
+  </si>
+  <si>
+    <t>Icontractor.Net Peoria Az</t>
+  </si>
+  <si>
+    <t>In N Out</t>
+  </si>
+  <si>
+    <t>In N Out Burger 335 Mission Viejoca</t>
+  </si>
+  <si>
+    <t>Industrial Rubber</t>
+  </si>
+  <si>
+    <t>Inland Smog Stop</t>
+  </si>
+  <si>
+    <t>Inland-Group.Com</t>
+  </si>
+  <si>
+    <t>In-N-Out</t>
+  </si>
+  <si>
+    <t>International Transaction Fee</t>
+  </si>
+  <si>
+    <t>Intuit</t>
+  </si>
+  <si>
+    <t>Ipfs</t>
+  </si>
+  <si>
+    <t>J&amp;J Metal Products</t>
+  </si>
+  <si>
+    <t>Jacks Pauls Key Service</t>
+  </si>
+  <si>
+    <t>Jasper Engine Exchange</t>
+  </si>
+  <si>
+    <t>Jersey Mikes</t>
+  </si>
+  <si>
+    <t>Jimenez, Brigido</t>
+  </si>
+  <si>
+    <t>Jorge M Lopez</t>
+  </si>
+  <si>
+    <t>Jose Munoz</t>
+  </si>
+  <si>
+    <t>Joses Mexican Food</t>
+  </si>
+  <si>
+    <t>Judson Design</t>
+  </si>
+  <si>
+    <t>Jumbozo</t>
+  </si>
+  <si>
+    <t>Kafe Royale</t>
+  </si>
+  <si>
+    <t>Kaiser</t>
+  </si>
+  <si>
+    <t>King Buffet</t>
+  </si>
+  <si>
+    <t>Kleen Rite Corp</t>
+  </si>
+  <si>
+    <t>Koritas Tires</t>
+  </si>
+  <si>
+    <t>La Casita Cantina</t>
+  </si>
+  <si>
+    <t>La Equipment Services</t>
+  </si>
+  <si>
+    <t>La Mexicana Restaurant</t>
+  </si>
+  <si>
+    <t>Land And Shore Property Managament</t>
+  </si>
+  <si>
+    <t>Late Payment Fee</t>
+  </si>
+  <si>
+    <t>Lee's Auto Body</t>
+  </si>
+  <si>
+    <t>Little Sisters Truck Wash</t>
+  </si>
+  <si>
+    <t>Lmc Truck</t>
+  </si>
+  <si>
+    <t>Los Molcajetes Restaurant</t>
   </si>
   <si>
     <t>Lowes</t>
   </si>
   <si>
-    <t>Luna Roof Repair</t>
-  </si>
-  <si>
-    <t>Marta Campos</t>
-  </si>
-  <si>
-    <t>Martin Plascencia</t>
-  </si>
-  <si>
-    <t>Merchant Bankcd Deposit</t>
-  </si>
-  <si>
-    <t>Mercury Insurance</t>
-  </si>
-  <si>
-    <t>Norco Auto Tech</t>
-  </si>
-  <si>
-    <t>Norman</t>
-  </si>
-  <si>
-    <t>Not Cow Inc</t>
-  </si>
-  <si>
-    <t>NSEC</t>
-  </si>
-  <si>
-    <t>NSWC</t>
-  </si>
-  <si>
-    <t>On-Line Stamp Co</t>
-  </si>
-  <si>
-    <t>OTC Transfer</t>
-  </si>
-  <si>
-    <t>Payroll Taxes Paid</t>
-  </si>
-  <si>
-    <t>Permit Management</t>
-  </si>
-  <si>
-    <t>Phung Truong</t>
-  </si>
-  <si>
-    <t>Pimerica</t>
-  </si>
-  <si>
-    <t>Plus Air</t>
-  </si>
-  <si>
-    <t>Powerstride Batteries</t>
-  </si>
-  <si>
-    <t>Pps Pay</t>
-  </si>
-  <si>
-    <t>Primerica Life Ins</t>
-  </si>
-  <si>
-    <t>Purple Crane Service</t>
-  </si>
-  <si>
-    <t>Quantrac Corp</t>
-  </si>
-  <si>
-    <t>Shell</t>
+    <t>Manchu Wok</t>
+  </si>
+  <si>
+    <t>Maria Pollo</t>
+  </si>
+  <si>
+    <t>Martin Z Garcia</t>
+  </si>
+  <si>
+    <t>Maverik</t>
+  </si>
+  <si>
+    <t>Mayen Truck Accessories</t>
+  </si>
+  <si>
+    <t>Mcafee.Com</t>
+  </si>
+  <si>
+    <t>Mccrays</t>
+  </si>
+  <si>
+    <t>Mcdonalds</t>
+  </si>
+  <si>
+    <t>McRays</t>
+  </si>
+  <si>
+    <t>Medallion Bank</t>
+  </si>
+  <si>
+    <t>Merchant Name Location Az</t>
+  </si>
+  <si>
+    <t>Mesa Gunite Supply</t>
+  </si>
+  <si>
+    <t>Mia's Country Kitchen</t>
+  </si>
+  <si>
+    <t>Miguel A Gil</t>
+  </si>
+  <si>
+    <t>Miguel Gil Valladares</t>
+  </si>
+  <si>
+    <t>Millner-Haufen Co</t>
+  </si>
+  <si>
+    <t>Miss Donut And Bag</t>
+  </si>
+  <si>
+    <t>Movies Havasu</t>
+  </si>
+  <si>
+    <t>Mrs Taco S Mexican Grill</t>
+  </si>
+  <si>
+    <t>Mtmtww.Com</t>
+  </si>
+  <si>
+    <t>Mybestbuy Total Yearly</t>
+  </si>
+  <si>
+    <t>Napa Auto Parts</t>
+  </si>
+  <si>
+    <t>Norms</t>
+  </si>
+  <si>
+    <t>O Rings &amp; Things</t>
+  </si>
+  <si>
+    <t>O/S Prior Year Checks</t>
+  </si>
+  <si>
+    <t>Ocampos Restaurant</t>
+  </si>
+  <si>
+    <t>Odelfi Braga Dub</t>
+  </si>
+  <si>
+    <t>Omaha National</t>
+  </si>
+  <si>
+    <t>Ontario Testing Center</t>
+  </si>
+  <si>
+    <t>O'Reilly</t>
+  </si>
+  <si>
+    <t>Orion Business Insurance</t>
+  </si>
+  <si>
+    <t>Oscar Duckworth</t>
+  </si>
+  <si>
+    <t>Overdraft Protection To -8406</t>
+  </si>
+  <si>
+    <t>Panda Express</t>
+  </si>
+  <si>
+    <t>Parts Authority</t>
+  </si>
+  <si>
+    <t>Parts Town</t>
+  </si>
+  <si>
+    <t>Patsy's Country Kitchen</t>
+  </si>
+  <si>
+    <t>Pattons Steel</t>
+  </si>
+  <si>
+    <t>Paul Wagnot</t>
+  </si>
+  <si>
+    <t>Payment to CC - 3728 (300)</t>
+  </si>
+  <si>
+    <t>PDQuipment</t>
+  </si>
+  <si>
+    <t>Peopleg2 Paradise Vallaz</t>
+  </si>
+  <si>
+    <t>Perry Trucking</t>
+  </si>
+  <si>
+    <t>Pilot</t>
+  </si>
+  <si>
+    <t>Pizza Chalet</t>
+  </si>
+  <si>
+    <t>Popeyes</t>
+  </si>
+  <si>
+    <t>Portable Power</t>
+  </si>
+  <si>
+    <t>PPS Pay</t>
+  </si>
+  <si>
+    <t>PPS Pay Account Verification</t>
+  </si>
+  <si>
+    <t>Premier Market Express</t>
+  </si>
+  <si>
+    <t>Prime Products</t>
+  </si>
+  <si>
+    <t>Professppqa Hkg</t>
+  </si>
+  <si>
+    <t>Prolube Oil</t>
+  </si>
+  <si>
+    <t>Pro-Pipe And Supply</t>
+  </si>
+  <si>
+    <t>Pruetts Precision Alignment</t>
+  </si>
+  <si>
+    <t>Pump Parts Plus</t>
+  </si>
+  <si>
+    <t>Quality Power</t>
+  </si>
+  <si>
+    <t>Queen Welding Supply</t>
+  </si>
+  <si>
+    <t>Quinn Company</t>
+  </si>
+  <si>
+    <t>Rafael Cardenas Farias</t>
+  </si>
+  <si>
+    <t>Rafael Torres Chavez</t>
+  </si>
+  <si>
+    <t>Rainbow Bolt and Supply</t>
+  </si>
+  <si>
+    <t>Ramona's Mexican</t>
+  </si>
+  <si>
+    <t>Ramona's Mexican Food</t>
+  </si>
+  <si>
+    <t>Rancho Ready Mix</t>
+  </si>
+  <si>
+    <t>Redlands Muffler And Brake</t>
+  </si>
+  <si>
+    <t>Reed Llc</t>
+  </si>
+  <si>
+    <t>Register of Contractors</t>
+  </si>
+  <si>
+    <t>Reservation Samstown</t>
+  </si>
+  <si>
+    <t>Residence Inn Bakers</t>
+  </si>
+  <si>
+    <t>Riverside Chevrolet</t>
+  </si>
+  <si>
+    <t>Riverside City Business Tax</t>
+  </si>
+  <si>
+    <t>Riverside Superior Court</t>
+  </si>
+  <si>
+    <t>Robertos Taco Shop</t>
+  </si>
+  <si>
+    <t>Robertson Ready Mix</t>
+  </si>
+  <si>
+    <t>Rocket Mortgage</t>
+  </si>
+  <si>
+    <t>Rodeway Inn</t>
+  </si>
+  <si>
+    <t>Rodolberto's Taco Shop</t>
+  </si>
+  <si>
+    <t>Roseburrough Tool Inc</t>
+  </si>
+  <si>
+    <t>Royal Catering</t>
+  </si>
+  <si>
+    <t>Rs Hose &amp; Equipment</t>
+  </si>
+  <si>
+    <t>Rugby Holdings</t>
+  </si>
+  <si>
+    <t>Rupertos Mexican Food</t>
+  </si>
+  <si>
+    <t>Rush Truck Center</t>
+  </si>
+  <si>
+    <t>S&amp;S</t>
+  </si>
+  <si>
+    <t>Safeway</t>
+  </si>
+  <si>
+    <t>Salvador Barajas</t>
+  </si>
+  <si>
+    <t>Sammys Cafe</t>
+  </si>
+  <si>
+    <t>Sams Club</t>
+  </si>
+  <si>
+    <t>Sams Town Hotel</t>
+  </si>
+  <si>
+    <t>San Bernardino Tax</t>
+  </si>
+  <si>
+    <t>San Diego Airport Parking</t>
+  </si>
+  <si>
+    <t>SC Fuels</t>
+  </si>
+  <si>
+    <t>Scott Equipment</t>
+  </si>
+  <si>
+    <t>Scotty's Brosted Chicken</t>
+  </si>
+  <si>
+    <t>Sd Zoo Treehouse</t>
+  </si>
+  <si>
+    <t>Sergio Arteaga</t>
+  </si>
+  <si>
+    <t>Sergio Sosa</t>
+  </si>
+  <si>
+    <t>Shell Oil</t>
+  </si>
+  <si>
+    <t>Shelley Russell</t>
+  </si>
+  <si>
+    <t>Sidelines Sports Bar &amp; Grill</t>
+  </si>
+  <si>
+    <t>Smartsaker</t>
+  </si>
+  <si>
+    <t>Smiths Bakeries Inc</t>
+  </si>
+  <si>
+    <t>Smiths Food</t>
+  </si>
+  <si>
+    <t>Smm</t>
   </si>
   <si>
     <t>SMM Solutions</t>
   </si>
   <si>
-    <t>So Cal Edison</t>
-  </si>
-  <si>
-    <t>Southern Tire Mart</t>
-  </si>
-  <si>
-    <t>Spectrio Llc</t>
-  </si>
-  <si>
-    <t>Spectrum</t>
-  </si>
-  <si>
-    <t>Stat Aire</t>
-  </si>
-  <si>
-    <t>Stop Payment Order/Renewal Fee</t>
+    <t>Sonora Tacos Y Mariscos</t>
+  </si>
+  <si>
+    <t>Soul Of Mexico Food</t>
+  </si>
+  <si>
+    <t>South Coast Bobcat</t>
+  </si>
+  <si>
+    <t>South West Structors Inc</t>
+  </si>
+  <si>
+    <t>Southland International</t>
+  </si>
+  <si>
+    <t>Southwest Structures</t>
+  </si>
+  <si>
+    <t>Southwest Wheel</t>
+  </si>
+  <si>
+    <t>Sta-Ballot Pymts</t>
+  </si>
+  <si>
+    <t>Staples</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>State Farm</t>
+  </si>
+  <si>
+    <t>Staterbros</t>
+  </si>
+  <si>
+    <t>Stayeasyllc</t>
+  </si>
+  <si>
+    <t>Subway</t>
+  </si>
+  <si>
+    <t>Superior Automotive</t>
+  </si>
+  <si>
+    <t>Superior Ready Mix</t>
+  </si>
+  <si>
+    <t>TeamFunder</t>
+  </si>
+  <si>
+    <t>The Blacksmith Restaurant</t>
   </si>
   <si>
     <t>The Home Depot</t>
   </si>
   <si>
-    <t>The Smog Stop</t>
-  </si>
-  <si>
-    <t>T-Mobile</t>
-  </si>
-  <si>
-    <t>Transfer to 111</t>
-  </si>
-  <si>
-    <t>Transfer to 112</t>
-  </si>
-  <si>
-    <t>UniFirst Corporation</t>
-  </si>
-  <si>
-    <t>Us Air Conditioning</t>
-  </si>
-  <si>
-    <t>Valero</t>
-  </si>
-  <si>
-    <t>Victor Navarette</t>
-  </si>
-  <si>
-    <t>Victory Crane</t>
-  </si>
-  <si>
-    <t>Waste Management</t>
-  </si>
-  <si>
-    <t>We Do Equipment</t>
-  </si>
-  <si>
-    <t>We Green Energy</t>
-  </si>
-  <si>
-    <t>West Coast Copper</t>
-  </si>
-  <si>
-    <t>William N Agosto</t>
-  </si>
-  <si>
-    <t>Withdrawal</t>
-  </si>
-  <si>
-    <t>Wright's Supply</t>
+    <t>The Hose-Man</t>
+  </si>
+  <si>
+    <t>The Oak House Restaura Yucaipa Ca</t>
+  </si>
+  <si>
+    <t>The Oak House Restaurant</t>
+  </si>
+  <si>
+    <t>The Original Pancake House</t>
+  </si>
+  <si>
+    <t>The Pinske Edge</t>
+  </si>
+  <si>
+    <t>The Sand Trap Sports Bar &amp; Grill</t>
+  </si>
+  <si>
+    <t>The Toll Roads Of OC</t>
+  </si>
+  <si>
+    <t>Tiktok Shop</t>
+  </si>
+  <si>
+    <t>Top Line Industrial</t>
+  </si>
+  <si>
+    <t>Traction Heavy Duty</t>
+  </si>
+  <si>
+    <t>Traction Str</t>
+  </si>
+  <si>
+    <t>Tractor Supply</t>
+  </si>
+  <si>
+    <t>Transfer from 112 (4368)</t>
+  </si>
+  <si>
+    <t>Transfer To 110</t>
+  </si>
+  <si>
+    <t>Transfer to 113</t>
+  </si>
+  <si>
+    <t>Transfer To Checking -7150</t>
+  </si>
+  <si>
+    <t>Transfer To Checking -9537</t>
+  </si>
+  <si>
+    <t>Transfer to Personal 7150</t>
+  </si>
+  <si>
+    <t>Transfer to Personal 9537</t>
+  </si>
+  <si>
+    <t>Travelocity</t>
+  </si>
+  <si>
+    <t>Travis S Shaffer</t>
+  </si>
+  <si>
+    <t>Tsa Precheck</t>
+  </si>
+  <si>
+    <t>United Airlines</t>
+  </si>
+  <si>
+    <t>United States Treasury</t>
+  </si>
+  <si>
+    <t>Vander Haags Inc</t>
+  </si>
+  <si>
+    <t>VCES Corona</t>
+  </si>
+  <si>
+    <t>Verizon</t>
+  </si>
+  <si>
+    <t>Vicky's Restaurant</t>
+  </si>
+  <si>
+    <t>Volvo Construction Equipment &amp; Services</t>
+  </si>
+  <si>
+    <t>Von's Transmission</t>
+  </si>
+  <si>
+    <t>Vrbo Fee</t>
+  </si>
+  <si>
+    <t>Walgreens</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>Western Shotcrete</t>
+  </si>
+  <si>
+    <t>Westrux International</t>
+  </si>
+  <si>
+    <t>White Cap</t>
+  </si>
+  <si>
+    <t>Wienerschnitzel</t>
+  </si>
+  <si>
+    <t>Willis Supply</t>
+  </si>
+  <si>
+    <t>Worldofshotcrete</t>
+  </si>
+  <si>
+    <t>Yeager'S Diesel</t>
+  </si>
+  <si>
+    <t>Yucaipa Auto</t>
+  </si>
+  <si>
+    <t>Yucipa Rodeo</t>
+  </si>
+  <si>
+    <t>Zelle payment to Alfardo Hernandez</t>
+  </si>
+  <si>
+    <t>Zelle Payment To Miguel Gill</t>
+  </si>
+  <si>
+    <t>Zip C-Store</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +2151,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D90410-D9D2-4D56-A150-4582E761533E}">
-  <dimension ref="A1:P121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13FF20A-D7A4-4997-A05F-23AF050B75AF}">
+  <dimension ref="A1:P411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1342,8 +2209,8 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>15</v>
+      <c r="B2">
+        <v>76</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -1355,12 +2222,12 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>604</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -1372,12 +2239,12 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>610</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -1389,12 +2256,12 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>703</v>
+        <v>751</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -1406,12 +2273,12 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -1423,12 +2290,12 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -1440,12 +2307,12 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -1457,12 +2324,12 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>604</v>
+        <v>724</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -1474,12 +2341,12 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -1491,12 +2358,12 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -1508,12 +2375,12 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>642</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -1525,12 +2392,12 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>715</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -1542,12 +2409,12 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <v>610</v>
+        <v>708</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -1559,12 +2426,12 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <v>100</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1576,12 +2443,12 @@
         <v>1</v>
       </c>
       <c r="O15">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -1593,12 +2460,12 @@
         <v>1</v>
       </c>
       <c r="O16">
-        <v>715</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -1610,12 +2477,12 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>642</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -1627,12 +2494,12 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <v>360</v>
+        <v>724</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -1644,12 +2511,12 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <v>920</v>
+        <v>757</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -1661,12 +2528,12 @@
         <v>1</v>
       </c>
       <c r="O20">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -1678,12 +2545,12 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <v>731</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -1695,12 +2562,12 @@
         <v>1</v>
       </c>
       <c r="O22">
-        <v>705</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -1712,12 +2579,12 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -1729,12 +2596,12 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <v>602</v>
+        <v>726</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -1746,12 +2613,12 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>751</v>
+        <v>631</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -1768,7 +2635,7 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -1780,12 +2647,12 @@
         <v>1</v>
       </c>
       <c r="O27">
-        <v>751</v>
+        <v>724</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
@@ -1797,12 +2664,12 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>751</v>
+        <v>724</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -1819,7 +2686,7 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -1831,12 +2698,12 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>751</v>
+        <v>610</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -1848,12 +2715,12 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>615</v>
+        <v>724</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -1865,12 +2732,12 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>730</v>
+        <v>610</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
@@ -1882,12 +2749,12 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <v>730</v>
+        <v>650</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -1899,12 +2766,12 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <v>999</v>
+        <v>631</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -1916,12 +2783,12 @@
         <v>1</v>
       </c>
       <c r="O35">
-        <v>726</v>
+        <v>757</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -1933,12 +2800,12 @@
         <v>1</v>
       </c>
       <c r="O36">
-        <v>602</v>
+        <v>642</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -1950,12 +2817,12 @@
         <v>1</v>
       </c>
       <c r="O37">
-        <v>100</v>
+        <v>722</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -1967,12 +2834,12 @@
         <v>1</v>
       </c>
       <c r="O38">
-        <v>726</v>
+        <v>915</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -1984,12 +2851,12 @@
         <v>1</v>
       </c>
       <c r="O39">
-        <v>610</v>
+        <v>724</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
@@ -2001,12 +2868,12 @@
         <v>1</v>
       </c>
       <c r="O40">
-        <v>610</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -2018,12 +2885,12 @@
         <v>1</v>
       </c>
       <c r="O41">
-        <v>751</v>
+        <v>724</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -2035,12 +2902,12 @@
         <v>1</v>
       </c>
       <c r="O42">
-        <v>748</v>
+        <v>724</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -2052,12 +2919,12 @@
         <v>1</v>
       </c>
       <c r="O43">
-        <v>642</v>
+        <v>724</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -2069,12 +2936,12 @@
         <v>1</v>
       </c>
       <c r="O44">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -2086,12 +2953,12 @@
         <v>1</v>
       </c>
       <c r="O45">
-        <v>451</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -2103,12 +2970,12 @@
         <v>1</v>
       </c>
       <c r="O46">
-        <v>125</v>
+        <v>726</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -2125,7 +2992,7 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -2137,12 +3004,12 @@
         <v>1</v>
       </c>
       <c r="O48">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -2154,12 +3021,12 @@
         <v>1</v>
       </c>
       <c r="O49">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -2171,12 +3038,12 @@
         <v>1</v>
       </c>
       <c r="O50">
-        <v>744</v>
+        <v>726</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -2188,12 +3055,12 @@
         <v>1</v>
       </c>
       <c r="O51">
-        <v>999</v>
+        <v>722</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -2205,12 +3072,12 @@
         <v>1</v>
       </c>
       <c r="O52">
-        <v>900</v>
+        <v>724</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -2222,12 +3089,12 @@
         <v>1</v>
       </c>
       <c r="O53">
-        <v>750</v>
+        <v>724</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -2244,7 +3111,7 @@
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -2261,7 +3128,7 @@
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -2273,12 +3140,12 @@
         <v>1</v>
       </c>
       <c r="O56">
-        <v>726</v>
+        <v>999</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -2290,12 +3157,12 @@
         <v>1</v>
       </c>
       <c r="O57">
-        <v>344</v>
+        <v>724</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -2307,12 +3174,12 @@
         <v>1</v>
       </c>
       <c r="O58">
-        <v>604</v>
+        <v>750</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -2324,12 +3191,12 @@
         <v>1</v>
       </c>
       <c r="O59">
-        <v>610</v>
+        <v>631</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -2341,12 +3208,12 @@
         <v>1</v>
       </c>
       <c r="O60">
-        <v>602</v>
+        <v>751</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -2358,12 +3225,12 @@
         <v>1</v>
       </c>
       <c r="O61">
-        <v>726</v>
+        <v>751</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -2375,12 +3242,12 @@
         <v>1</v>
       </c>
       <c r="O62">
-        <v>705</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -2392,12 +3259,12 @@
         <v>1</v>
       </c>
       <c r="O63">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -2409,12 +3276,12 @@
         <v>1</v>
       </c>
       <c r="O64">
-        <v>726</v>
+        <v>600</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -2431,7 +3298,7 @@
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -2443,12 +3310,12 @@
         <v>1</v>
       </c>
       <c r="O66">
-        <v>744</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -2460,12 +3327,12 @@
         <v>1</v>
       </c>
       <c r="O67">
-        <v>602</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -2477,12 +3344,12 @@
         <v>1</v>
       </c>
       <c r="O68">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -2494,12 +3361,12 @@
         <v>1</v>
       </c>
       <c r="O69">
-        <v>100</v>
+        <v>757</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -2511,12 +3378,12 @@
         <v>1</v>
       </c>
       <c r="O70">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
@@ -2528,12 +3395,12 @@
         <v>1</v>
       </c>
       <c r="O71">
-        <v>760</v>
+        <v>600</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
@@ -2545,12 +3412,12 @@
         <v>1</v>
       </c>
       <c r="O72">
-        <v>604</v>
+        <v>724</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
@@ -2562,12 +3429,12 @@
         <v>1</v>
       </c>
       <c r="O73">
-        <v>744</v>
+        <v>724</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -2579,12 +3446,12 @@
         <v>1</v>
       </c>
       <c r="O74">
-        <v>604</v>
+        <v>726</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -2596,12 +3463,12 @@
         <v>1</v>
       </c>
       <c r="O75">
-        <v>610</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -2613,12 +3480,12 @@
         <v>1</v>
       </c>
       <c r="O76">
-        <v>770</v>
+        <v>724</v>
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
@@ -2630,12 +3497,12 @@
         <v>1</v>
       </c>
       <c r="O77">
-        <v>100</v>
+        <v>726</v>
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
@@ -2647,12 +3514,12 @@
         <v>1</v>
       </c>
       <c r="O78">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
@@ -2664,12 +3531,12 @@
         <v>1</v>
       </c>
       <c r="O79">
-        <v>744</v>
+        <v>724</v>
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
@@ -2681,12 +3548,12 @@
         <v>1</v>
       </c>
       <c r="O80">
-        <v>750</v>
+        <v>724</v>
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
@@ -2698,12 +3565,12 @@
         <v>1</v>
       </c>
       <c r="O81">
-        <v>602</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
@@ -2715,12 +3582,12 @@
         <v>1</v>
       </c>
       <c r="O82">
-        <v>610</v>
+        <v>757</v>
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
@@ -2732,12 +3599,12 @@
         <v>1</v>
       </c>
       <c r="O83">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
@@ -2749,12 +3616,12 @@
         <v>1</v>
       </c>
       <c r="O84">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
@@ -2766,12 +3633,12 @@
         <v>1</v>
       </c>
       <c r="O85">
-        <v>726</v>
+        <v>631</v>
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
@@ -2783,12 +3650,12 @@
         <v>1</v>
       </c>
       <c r="O86">
-        <v>999</v>
+        <v>724</v>
       </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
@@ -2800,12 +3667,12 @@
         <v>1</v>
       </c>
       <c r="O87">
-        <v>100</v>
+        <v>724</v>
       </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
@@ -2817,12 +3684,12 @@
         <v>1</v>
       </c>
       <c r="O88">
-        <v>751</v>
+        <v>705</v>
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
@@ -2834,12 +3701,12 @@
         <v>1</v>
       </c>
       <c r="O89">
-        <v>100</v>
+        <v>724</v>
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
@@ -2851,12 +3718,12 @@
         <v>1</v>
       </c>
       <c r="O90">
-        <v>705</v>
+        <v>724</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
@@ -2868,12 +3735,12 @@
         <v>1</v>
       </c>
       <c r="O91">
-        <v>610</v>
+        <v>751</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
@@ -2885,12 +3752,12 @@
         <v>1</v>
       </c>
       <c r="O92">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
@@ -2902,12 +3769,12 @@
         <v>1</v>
       </c>
       <c r="O93">
-        <v>712</v>
+        <v>751</v>
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
@@ -2919,12 +3786,12 @@
         <v>1</v>
       </c>
       <c r="O94">
-        <v>744</v>
+        <v>751</v>
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
@@ -2936,12 +3803,12 @@
         <v>1</v>
       </c>
       <c r="O95">
-        <v>642</v>
+        <v>751</v>
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
@@ -2953,12 +3820,12 @@
         <v>1</v>
       </c>
       <c r="O96">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
@@ -2970,12 +3837,12 @@
         <v>1</v>
       </c>
       <c r="O97">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
@@ -2987,12 +3854,12 @@
         <v>1</v>
       </c>
       <c r="O98">
-        <v>747</v>
+        <v>730</v>
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
@@ -3004,12 +3871,12 @@
         <v>1</v>
       </c>
       <c r="O99">
-        <v>753</v>
+        <v>726</v>
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K100" t="b">
         <v>0</v>
@@ -3021,12 +3888,12 @@
         <v>1</v>
       </c>
       <c r="O100">
-        <v>750</v>
+        <v>724</v>
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
@@ -3038,12 +3905,12 @@
         <v>1</v>
       </c>
       <c r="O101">
-        <v>723</v>
+        <v>600</v>
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
@@ -3055,12 +3922,12 @@
         <v>1</v>
       </c>
       <c r="O102">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K103" t="b">
         <v>0</v>
@@ -3072,12 +3939,12 @@
         <v>1</v>
       </c>
       <c r="O103">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K104" t="b">
         <v>0</v>
@@ -3089,12 +3956,12 @@
         <v>1</v>
       </c>
       <c r="O104">
-        <v>717</v>
+        <v>604</v>
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K105" t="b">
         <v>0</v>
@@ -3106,12 +3973,12 @@
         <v>1</v>
       </c>
       <c r="O105">
-        <v>604</v>
+        <v>724</v>
       </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K106" t="b">
         <v>0</v>
@@ -3123,12 +3990,12 @@
         <v>1</v>
       </c>
       <c r="O106">
-        <v>751</v>
+        <v>610</v>
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K107" t="b">
         <v>0</v>
@@ -3140,12 +4007,12 @@
         <v>1</v>
       </c>
       <c r="O107">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K108" t="b">
         <v>0</v>
@@ -3157,12 +4024,12 @@
         <v>1</v>
       </c>
       <c r="O108">
-        <v>111</v>
+        <v>724</v>
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K109" t="b">
         <v>0</v>
@@ -3174,12 +4041,12 @@
         <v>1</v>
       </c>
       <c r="O109">
-        <v>112</v>
+        <v>600</v>
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K110" t="b">
         <v>0</v>
@@ -3191,12 +4058,12 @@
         <v>1</v>
       </c>
       <c r="O110">
-        <v>722</v>
+        <v>610</v>
       </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K111" t="b">
         <v>0</v>
@@ -3208,12 +4075,12 @@
         <v>1</v>
       </c>
       <c r="O111">
-        <v>604</v>
+        <v>726</v>
       </c>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K112" t="b">
         <v>0</v>
@@ -3225,12 +4092,12 @@
         <v>1</v>
       </c>
       <c r="O112">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K113" t="b">
         <v>0</v>
@@ -3242,12 +4109,12 @@
         <v>1</v>
       </c>
       <c r="O113">
-        <v>100</v>
+        <v>724</v>
       </c>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K114" t="b">
         <v>0</v>
@@ -3259,12 +4126,12 @@
         <v>1</v>
       </c>
       <c r="O114">
-        <v>642</v>
+        <v>631</v>
       </c>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K115" t="b">
         <v>0</v>
@@ -3276,12 +4143,12 @@
         <v>1</v>
       </c>
       <c r="O115">
-        <v>753</v>
+        <v>600</v>
       </c>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K116" t="b">
         <v>0</v>
@@ -3293,12 +4160,12 @@
         <v>1</v>
       </c>
       <c r="O116">
-        <v>642</v>
+        <v>751</v>
       </c>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K117" t="b">
         <v>0</v>
@@ -3310,12 +4177,12 @@
         <v>1</v>
       </c>
       <c r="O117">
-        <v>610</v>
+        <v>724</v>
       </c>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K118" t="b">
         <v>0</v>
@@ -3327,12 +4194,12 @@
         <v>1</v>
       </c>
       <c r="O118">
-        <v>604</v>
+        <v>750</v>
       </c>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K119" t="b">
         <v>0</v>
@@ -3344,12 +4211,12 @@
         <v>1</v>
       </c>
       <c r="O119">
-        <v>100</v>
+        <v>451</v>
       </c>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K120" t="b">
         <v>0</v>
@@ -3361,24 +4228,4936 @@
         <v>1</v>
       </c>
       <c r="O120">
-        <v>451</v>
+        <v>610</v>
       </c>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
+        <v>133</v>
+      </c>
+      <c r="K121" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" t="b">
+        <v>0</v>
+      </c>
+      <c r="M121" t="b">
+        <v>1</v>
+      </c>
+      <c r="O121">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B122" t="s">
         <v>134</v>
       </c>
-      <c r="K121" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" t="b">
-        <v>0</v>
-      </c>
-      <c r="M121" t="b">
-        <v>1</v>
-      </c>
-      <c r="O121">
-        <v>602</v>
+      <c r="K122" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" t="b">
+        <v>0</v>
+      </c>
+      <c r="M122" t="b">
+        <v>1</v>
+      </c>
+      <c r="O122">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B123" t="s">
+        <v>135</v>
+      </c>
+      <c r="K123" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" t="b">
+        <v>0</v>
+      </c>
+      <c r="M123" t="b">
+        <v>1</v>
+      </c>
+      <c r="O123">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B124" t="s">
+        <v>136</v>
+      </c>
+      <c r="K124" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" t="b">
+        <v>0</v>
+      </c>
+      <c r="M124" t="b">
+        <v>1</v>
+      </c>
+      <c r="O124">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B125" t="s">
+        <v>137</v>
+      </c>
+      <c r="K125" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" t="b">
+        <v>0</v>
+      </c>
+      <c r="M125" t="b">
+        <v>1</v>
+      </c>
+      <c r="O125">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B126" t="s">
+        <v>138</v>
+      </c>
+      <c r="K126" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" t="b">
+        <v>0</v>
+      </c>
+      <c r="M126" t="b">
+        <v>1</v>
+      </c>
+      <c r="O126">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B127" t="s">
+        <v>139</v>
+      </c>
+      <c r="K127" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" t="b">
+        <v>0</v>
+      </c>
+      <c r="M127" t="b">
+        <v>1</v>
+      </c>
+      <c r="O127">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B128" t="s">
+        <v>140</v>
+      </c>
+      <c r="K128" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" t="b">
+        <v>0</v>
+      </c>
+      <c r="M128" t="b">
+        <v>1</v>
+      </c>
+      <c r="O128">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B129" t="s">
+        <v>141</v>
+      </c>
+      <c r="K129" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" t="b">
+        <v>0</v>
+      </c>
+      <c r="M129" t="b">
+        <v>1</v>
+      </c>
+      <c r="O129">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B130" t="s">
+        <v>142</v>
+      </c>
+      <c r="K130" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" t="b">
+        <v>0</v>
+      </c>
+      <c r="M130" t="b">
+        <v>1</v>
+      </c>
+      <c r="O130">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B131" t="s">
+        <v>143</v>
+      </c>
+      <c r="K131" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" t="b">
+        <v>0</v>
+      </c>
+      <c r="M131" t="b">
+        <v>1</v>
+      </c>
+      <c r="O131">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B132" t="s">
+        <v>144</v>
+      </c>
+      <c r="K132" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" t="b">
+        <v>0</v>
+      </c>
+      <c r="M132" t="b">
+        <v>1</v>
+      </c>
+      <c r="O132">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B133" t="s">
+        <v>145</v>
+      </c>
+      <c r="K133" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" t="b">
+        <v>0</v>
+      </c>
+      <c r="M133" t="b">
+        <v>1</v>
+      </c>
+      <c r="O133">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B134" t="s">
+        <v>146</v>
+      </c>
+      <c r="K134" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" t="b">
+        <v>0</v>
+      </c>
+      <c r="M134" t="b">
+        <v>1</v>
+      </c>
+      <c r="O134">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B135" t="s">
+        <v>147</v>
+      </c>
+      <c r="K135" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" t="b">
+        <v>0</v>
+      </c>
+      <c r="M135" t="b">
+        <v>1</v>
+      </c>
+      <c r="O135">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B136" t="s">
+        <v>148</v>
+      </c>
+      <c r="K136" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" t="b">
+        <v>0</v>
+      </c>
+      <c r="M136" t="b">
+        <v>1</v>
+      </c>
+      <c r="O136">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B137" t="s">
+        <v>149</v>
+      </c>
+      <c r="K137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137" t="b">
+        <v>1</v>
+      </c>
+      <c r="O137">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B138" t="s">
+        <v>150</v>
+      </c>
+      <c r="K138" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" t="b">
+        <v>1</v>
+      </c>
+      <c r="O138">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B139" t="s">
+        <v>151</v>
+      </c>
+      <c r="K139" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" t="b">
+        <v>0</v>
+      </c>
+      <c r="M139" t="b">
+        <v>1</v>
+      </c>
+      <c r="O139">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B140" t="s">
+        <v>152</v>
+      </c>
+      <c r="K140" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" t="b">
+        <v>0</v>
+      </c>
+      <c r="M140" t="b">
+        <v>1</v>
+      </c>
+      <c r="O140">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B141" t="s">
+        <v>153</v>
+      </c>
+      <c r="K141" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" t="b">
+        <v>0</v>
+      </c>
+      <c r="M141" t="b">
+        <v>1</v>
+      </c>
+      <c r="O141">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B142" t="s">
+        <v>154</v>
+      </c>
+      <c r="K142" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" t="b">
+        <v>0</v>
+      </c>
+      <c r="M142" t="b">
+        <v>1</v>
+      </c>
+      <c r="O142">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B143" t="s">
+        <v>155</v>
+      </c>
+      <c r="K143" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" t="b">
+        <v>0</v>
+      </c>
+      <c r="M143" t="b">
+        <v>1</v>
+      </c>
+      <c r="O143">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B144" t="s">
+        <v>156</v>
+      </c>
+      <c r="K144" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" t="b">
+        <v>0</v>
+      </c>
+      <c r="M144" t="b">
+        <v>1</v>
+      </c>
+      <c r="O144">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="145" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B145" t="s">
+        <v>157</v>
+      </c>
+      <c r="K145" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" t="b">
+        <v>0</v>
+      </c>
+      <c r="M145" t="b">
+        <v>1</v>
+      </c>
+      <c r="O145">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="146" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B146" t="s">
+        <v>158</v>
+      </c>
+      <c r="K146" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" t="b">
+        <v>0</v>
+      </c>
+      <c r="M146" t="b">
+        <v>1</v>
+      </c>
+      <c r="O146">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="147" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B147" t="s">
+        <v>159</v>
+      </c>
+      <c r="K147" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" t="b">
+        <v>0</v>
+      </c>
+      <c r="M147" t="b">
+        <v>1</v>
+      </c>
+      <c r="O147">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="148" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B148" t="s">
+        <v>160</v>
+      </c>
+      <c r="K148" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" t="b">
+        <v>0</v>
+      </c>
+      <c r="M148" t="b">
+        <v>1</v>
+      </c>
+      <c r="O148">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="149" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B149" t="s">
+        <v>161</v>
+      </c>
+      <c r="K149" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" t="b">
+        <v>0</v>
+      </c>
+      <c r="M149" t="b">
+        <v>1</v>
+      </c>
+      <c r="O149">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="150" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B150" t="s">
+        <v>162</v>
+      </c>
+      <c r="K150" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" t="b">
+        <v>0</v>
+      </c>
+      <c r="M150" t="b">
+        <v>1</v>
+      </c>
+      <c r="O150">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="151" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B151" t="s">
+        <v>163</v>
+      </c>
+      <c r="K151" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" t="b">
+        <v>0</v>
+      </c>
+      <c r="M151" t="b">
+        <v>1</v>
+      </c>
+      <c r="O151">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B152" t="s">
+        <v>164</v>
+      </c>
+      <c r="K152" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" t="b">
+        <v>0</v>
+      </c>
+      <c r="M152" t="b">
+        <v>1</v>
+      </c>
+      <c r="O152">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="153" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B153" t="s">
+        <v>165</v>
+      </c>
+      <c r="K153" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" t="b">
+        <v>0</v>
+      </c>
+      <c r="M153" t="b">
+        <v>1</v>
+      </c>
+      <c r="O153">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="154" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B154" t="s">
+        <v>166</v>
+      </c>
+      <c r="K154" t="b">
+        <v>0</v>
+      </c>
+      <c r="L154" t="b">
+        <v>0</v>
+      </c>
+      <c r="M154" t="b">
+        <v>1</v>
+      </c>
+      <c r="O154">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="155" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B155" t="s">
+        <v>167</v>
+      </c>
+      <c r="K155" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" t="b">
+        <v>0</v>
+      </c>
+      <c r="M155" t="b">
+        <v>1</v>
+      </c>
+      <c r="O155">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="156" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B156" t="s">
+        <v>168</v>
+      </c>
+      <c r="K156" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" t="b">
+        <v>0</v>
+      </c>
+      <c r="M156" t="b">
+        <v>1</v>
+      </c>
+      <c r="O156">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="157" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B157" t="s">
+        <v>169</v>
+      </c>
+      <c r="K157" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" t="b">
+        <v>0</v>
+      </c>
+      <c r="M157" t="b">
+        <v>1</v>
+      </c>
+      <c r="O157">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="158" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B158" t="s">
+        <v>170</v>
+      </c>
+      <c r="K158" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" t="b">
+        <v>0</v>
+      </c>
+      <c r="M158" t="b">
+        <v>1</v>
+      </c>
+      <c r="O158">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="159" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>171</v>
+      </c>
+      <c r="K159" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" t="b">
+        <v>0</v>
+      </c>
+      <c r="M159" t="b">
+        <v>1</v>
+      </c>
+      <c r="O159">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="160" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B160" t="s">
+        <v>172</v>
+      </c>
+      <c r="K160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" t="b">
+        <v>0</v>
+      </c>
+      <c r="M160" t="b">
+        <v>1</v>
+      </c>
+      <c r="O160">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="161" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B161" t="s">
+        <v>173</v>
+      </c>
+      <c r="K161" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" t="b">
+        <v>0</v>
+      </c>
+      <c r="M161" t="b">
+        <v>1</v>
+      </c>
+      <c r="O161">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="162" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B162" t="s">
+        <v>174</v>
+      </c>
+      <c r="K162" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" t="b">
+        <v>0</v>
+      </c>
+      <c r="M162" t="b">
+        <v>1</v>
+      </c>
+      <c r="O162">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="163" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B163" t="s">
+        <v>175</v>
+      </c>
+      <c r="K163" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" t="b">
+        <v>0</v>
+      </c>
+      <c r="M163" t="b">
+        <v>1</v>
+      </c>
+      <c r="O163">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="164" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B164" t="s">
+        <v>176</v>
+      </c>
+      <c r="K164" t="b">
+        <v>0</v>
+      </c>
+      <c r="L164" t="b">
+        <v>0</v>
+      </c>
+      <c r="M164" t="b">
+        <v>1</v>
+      </c>
+      <c r="O164">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="165" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B165" t="s">
+        <v>177</v>
+      </c>
+      <c r="K165" t="b">
+        <v>0</v>
+      </c>
+      <c r="L165" t="b">
+        <v>0</v>
+      </c>
+      <c r="M165" t="b">
+        <v>1</v>
+      </c>
+      <c r="O165">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="166" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B166" t="s">
+        <v>178</v>
+      </c>
+      <c r="K166" t="b">
+        <v>0</v>
+      </c>
+      <c r="L166" t="b">
+        <v>0</v>
+      </c>
+      <c r="M166" t="b">
+        <v>1</v>
+      </c>
+      <c r="O166">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="167" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B167" t="s">
+        <v>179</v>
+      </c>
+      <c r="K167" t="b">
+        <v>0</v>
+      </c>
+      <c r="L167" t="b">
+        <v>0</v>
+      </c>
+      <c r="M167" t="b">
+        <v>1</v>
+      </c>
+      <c r="O167">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="168" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B168" t="s">
+        <v>180</v>
+      </c>
+      <c r="K168" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168" t="b">
+        <v>0</v>
+      </c>
+      <c r="M168" t="b">
+        <v>1</v>
+      </c>
+      <c r="O168">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="169" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B169" t="s">
+        <v>181</v>
+      </c>
+      <c r="K169" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" t="b">
+        <v>0</v>
+      </c>
+      <c r="M169" t="b">
+        <v>1</v>
+      </c>
+      <c r="O169">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="170" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B170" t="s">
+        <v>182</v>
+      </c>
+      <c r="K170" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" t="b">
+        <v>0</v>
+      </c>
+      <c r="M170" t="b">
+        <v>1</v>
+      </c>
+      <c r="O170">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="171" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B171" t="s">
+        <v>183</v>
+      </c>
+      <c r="K171" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" t="b">
+        <v>0</v>
+      </c>
+      <c r="M171" t="b">
+        <v>1</v>
+      </c>
+      <c r="O171">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="172" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B172" t="s">
+        <v>184</v>
+      </c>
+      <c r="K172" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" t="b">
+        <v>0</v>
+      </c>
+      <c r="M172" t="b">
+        <v>1</v>
+      </c>
+      <c r="O172">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="173" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B173" t="s">
+        <v>185</v>
+      </c>
+      <c r="K173" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173" t="b">
+        <v>0</v>
+      </c>
+      <c r="M173" t="b">
+        <v>1</v>
+      </c>
+      <c r="O173">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="174" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B174" t="s">
+        <v>186</v>
+      </c>
+      <c r="K174" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" t="b">
+        <v>0</v>
+      </c>
+      <c r="M174" t="b">
+        <v>1</v>
+      </c>
+      <c r="O174">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="175" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B175" t="s">
+        <v>187</v>
+      </c>
+      <c r="K175" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" t="b">
+        <v>0</v>
+      </c>
+      <c r="M175" t="b">
+        <v>1</v>
+      </c>
+      <c r="O175">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="176" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B176" t="s">
+        <v>188</v>
+      </c>
+      <c r="K176" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" t="b">
+        <v>0</v>
+      </c>
+      <c r="M176" t="b">
+        <v>1</v>
+      </c>
+      <c r="O176">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="177" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B177" t="s">
+        <v>189</v>
+      </c>
+      <c r="K177" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" t="b">
+        <v>0</v>
+      </c>
+      <c r="M177" t="b">
+        <v>1</v>
+      </c>
+      <c r="O177">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="178" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B178" t="s">
+        <v>190</v>
+      </c>
+      <c r="K178" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" t="b">
+        <v>0</v>
+      </c>
+      <c r="M178" t="b">
+        <v>1</v>
+      </c>
+      <c r="O178">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="179" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B179" t="s">
+        <v>191</v>
+      </c>
+      <c r="K179" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" t="b">
+        <v>0</v>
+      </c>
+      <c r="M179" t="b">
+        <v>1</v>
+      </c>
+      <c r="O179">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="180" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B180" t="s">
+        <v>192</v>
+      </c>
+      <c r="K180" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" t="b">
+        <v>0</v>
+      </c>
+      <c r="M180" t="b">
+        <v>1</v>
+      </c>
+      <c r="O180">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="181" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B181" t="s">
+        <v>193</v>
+      </c>
+      <c r="K181" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" t="b">
+        <v>0</v>
+      </c>
+      <c r="M181" t="b">
+        <v>1</v>
+      </c>
+      <c r="O181">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="182" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B182" t="s">
+        <v>194</v>
+      </c>
+      <c r="K182" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" t="b">
+        <v>0</v>
+      </c>
+      <c r="M182" t="b">
+        <v>1</v>
+      </c>
+      <c r="O182">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="183" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B183" t="s">
+        <v>195</v>
+      </c>
+      <c r="K183" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" t="b">
+        <v>0</v>
+      </c>
+      <c r="M183" t="b">
+        <v>1</v>
+      </c>
+      <c r="O183">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="184" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B184" t="s">
+        <v>196</v>
+      </c>
+      <c r="K184" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" t="b">
+        <v>0</v>
+      </c>
+      <c r="M184" t="b">
+        <v>1</v>
+      </c>
+      <c r="O184">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="185" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B185" t="s">
+        <v>197</v>
+      </c>
+      <c r="K185" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" t="b">
+        <v>0</v>
+      </c>
+      <c r="M185" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B186" t="s">
+        <v>198</v>
+      </c>
+      <c r="K186" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" t="b">
+        <v>0</v>
+      </c>
+      <c r="M186" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B187" t="s">
+        <v>199</v>
+      </c>
+      <c r="K187" t="b">
+        <v>0</v>
+      </c>
+      <c r="L187" t="b">
+        <v>0</v>
+      </c>
+      <c r="M187" t="b">
+        <v>1</v>
+      </c>
+      <c r="O187">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="188" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B188" t="s">
+        <v>200</v>
+      </c>
+      <c r="K188" t="b">
+        <v>0</v>
+      </c>
+      <c r="L188" t="b">
+        <v>0</v>
+      </c>
+      <c r="M188" t="b">
+        <v>1</v>
+      </c>
+      <c r="O188">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="189" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B189" t="s">
+        <v>201</v>
+      </c>
+      <c r="K189" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" t="b">
+        <v>0</v>
+      </c>
+      <c r="M189" t="b">
+        <v>1</v>
+      </c>
+      <c r="O189">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="190" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B190" t="s">
+        <v>202</v>
+      </c>
+      <c r="K190" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" t="b">
+        <v>0</v>
+      </c>
+      <c r="M190" t="b">
+        <v>1</v>
+      </c>
+      <c r="O190">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="191" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B191" t="s">
+        <v>203</v>
+      </c>
+      <c r="K191" t="b">
+        <v>0</v>
+      </c>
+      <c r="L191" t="b">
+        <v>0</v>
+      </c>
+      <c r="M191" t="b">
+        <v>1</v>
+      </c>
+      <c r="O191">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="192" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B192" t="s">
+        <v>204</v>
+      </c>
+      <c r="K192" t="b">
+        <v>0</v>
+      </c>
+      <c r="L192" t="b">
+        <v>0</v>
+      </c>
+      <c r="M192" t="b">
+        <v>1</v>
+      </c>
+      <c r="O192">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="193" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B193" t="s">
+        <v>205</v>
+      </c>
+      <c r="K193" t="b">
+        <v>0</v>
+      </c>
+      <c r="L193" t="b">
+        <v>0</v>
+      </c>
+      <c r="M193" t="b">
+        <v>1</v>
+      </c>
+      <c r="O193">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="194" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B194" t="s">
+        <v>206</v>
+      </c>
+      <c r="K194" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194" t="b">
+        <v>0</v>
+      </c>
+      <c r="M194" t="b">
+        <v>1</v>
+      </c>
+      <c r="O194">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="195" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B195" t="s">
+        <v>207</v>
+      </c>
+      <c r="K195" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195" t="b">
+        <v>0</v>
+      </c>
+      <c r="M195" t="b">
+        <v>1</v>
+      </c>
+      <c r="O195">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="196" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B196" t="s">
+        <v>208</v>
+      </c>
+      <c r="K196" t="b">
+        <v>0</v>
+      </c>
+      <c r="L196" t="b">
+        <v>0</v>
+      </c>
+      <c r="M196" t="b">
+        <v>1</v>
+      </c>
+      <c r="O196">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="197" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B197" t="s">
+        <v>209</v>
+      </c>
+      <c r="K197" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" t="b">
+        <v>0</v>
+      </c>
+      <c r="M197" t="b">
+        <v>1</v>
+      </c>
+      <c r="O197">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="198" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B198" t="s">
+        <v>210</v>
+      </c>
+      <c r="K198" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" t="b">
+        <v>0</v>
+      </c>
+      <c r="M198" t="b">
+        <v>1</v>
+      </c>
+      <c r="O198">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B199" t="s">
+        <v>211</v>
+      </c>
+      <c r="K199" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" t="b">
+        <v>0</v>
+      </c>
+      <c r="M199" t="b">
+        <v>1</v>
+      </c>
+      <c r="O199">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="200" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B200" t="s">
+        <v>212</v>
+      </c>
+      <c r="K200" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" t="b">
+        <v>0</v>
+      </c>
+      <c r="M200" t="b">
+        <v>1</v>
+      </c>
+      <c r="O200">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="201" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B201" t="s">
+        <v>213</v>
+      </c>
+      <c r="K201" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201" t="b">
+        <v>0</v>
+      </c>
+      <c r="M201" t="b">
+        <v>1</v>
+      </c>
+      <c r="O201">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="202" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B202" t="s">
+        <v>214</v>
+      </c>
+      <c r="K202" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" t="b">
+        <v>0</v>
+      </c>
+      <c r="M202" t="b">
+        <v>1</v>
+      </c>
+      <c r="O202">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="203" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B203" t="s">
+        <v>215</v>
+      </c>
+      <c r="K203" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" t="b">
+        <v>0</v>
+      </c>
+      <c r="M203" t="b">
+        <v>1</v>
+      </c>
+      <c r="O203">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="204" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B204" t="s">
+        <v>216</v>
+      </c>
+      <c r="K204" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" t="b">
+        <v>0</v>
+      </c>
+      <c r="M204" t="b">
+        <v>1</v>
+      </c>
+      <c r="O204">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="205" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B205" t="s">
+        <v>217</v>
+      </c>
+      <c r="K205" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" t="b">
+        <v>0</v>
+      </c>
+      <c r="M205" t="b">
+        <v>1</v>
+      </c>
+      <c r="O205">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="206" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B206" t="s">
+        <v>218</v>
+      </c>
+      <c r="K206" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" t="b">
+        <v>0</v>
+      </c>
+      <c r="M206" t="b">
+        <v>1</v>
+      </c>
+      <c r="O206">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="207" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B207" t="s">
+        <v>219</v>
+      </c>
+      <c r="K207" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" t="b">
+        <v>0</v>
+      </c>
+      <c r="M207" t="b">
+        <v>1</v>
+      </c>
+      <c r="O207">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="208" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B208" t="s">
+        <v>220</v>
+      </c>
+      <c r="K208" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" t="b">
+        <v>0</v>
+      </c>
+      <c r="M208" t="b">
+        <v>1</v>
+      </c>
+      <c r="O208">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="209" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B209" t="s">
+        <v>221</v>
+      </c>
+      <c r="K209" t="b">
+        <v>0</v>
+      </c>
+      <c r="L209" t="b">
+        <v>0</v>
+      </c>
+      <c r="M209" t="b">
+        <v>1</v>
+      </c>
+      <c r="O209">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="210" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B210" t="s">
+        <v>222</v>
+      </c>
+      <c r="K210" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" t="b">
+        <v>0</v>
+      </c>
+      <c r="M210" t="b">
+        <v>1</v>
+      </c>
+      <c r="O210">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="211" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B211" t="s">
+        <v>223</v>
+      </c>
+      <c r="K211" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" t="b">
+        <v>0</v>
+      </c>
+      <c r="M211" t="b">
+        <v>1</v>
+      </c>
+      <c r="O211">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="212" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B212" t="s">
+        <v>224</v>
+      </c>
+      <c r="K212" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" t="b">
+        <v>0</v>
+      </c>
+      <c r="M212" t="b">
+        <v>1</v>
+      </c>
+      <c r="O212">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="213" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B213" t="s">
+        <v>225</v>
+      </c>
+      <c r="K213" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" t="b">
+        <v>0</v>
+      </c>
+      <c r="M213" t="b">
+        <v>1</v>
+      </c>
+      <c r="O213">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="214" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B214" t="s">
+        <v>226</v>
+      </c>
+      <c r="K214" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" t="b">
+        <v>0</v>
+      </c>
+      <c r="M214" t="b">
+        <v>1</v>
+      </c>
+      <c r="O214">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="215" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B215" t="s">
+        <v>227</v>
+      </c>
+      <c r="K215" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" t="b">
+        <v>0</v>
+      </c>
+      <c r="M215" t="b">
+        <v>1</v>
+      </c>
+      <c r="O215">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="216" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B216" t="s">
+        <v>228</v>
+      </c>
+      <c r="K216" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" t="b">
+        <v>0</v>
+      </c>
+      <c r="M216" t="b">
+        <v>1</v>
+      </c>
+      <c r="O216">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="217" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B217" t="s">
+        <v>229</v>
+      </c>
+      <c r="K217" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" t="b">
+        <v>0</v>
+      </c>
+      <c r="M217" t="b">
+        <v>1</v>
+      </c>
+      <c r="O217">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="218" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B218" t="s">
+        <v>230</v>
+      </c>
+      <c r="K218" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" t="b">
+        <v>0</v>
+      </c>
+      <c r="M218" t="b">
+        <v>1</v>
+      </c>
+      <c r="O218">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="219" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B219" t="s">
+        <v>231</v>
+      </c>
+      <c r="K219" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" t="b">
+        <v>0</v>
+      </c>
+      <c r="M219" t="b">
+        <v>1</v>
+      </c>
+      <c r="O219">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="220" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B220" t="s">
+        <v>232</v>
+      </c>
+      <c r="K220" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" t="b">
+        <v>0</v>
+      </c>
+      <c r="M220" t="b">
+        <v>1</v>
+      </c>
+      <c r="O220">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="221" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B221" t="s">
+        <v>233</v>
+      </c>
+      <c r="K221" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" t="b">
+        <v>0</v>
+      </c>
+      <c r="M221" t="b">
+        <v>1</v>
+      </c>
+      <c r="O221">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="222" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B222" t="s">
+        <v>234</v>
+      </c>
+      <c r="K222" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" t="b">
+        <v>0</v>
+      </c>
+      <c r="M222" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B223" t="s">
+        <v>235</v>
+      </c>
+      <c r="K223" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" t="b">
+        <v>0</v>
+      </c>
+      <c r="M223" t="b">
+        <v>1</v>
+      </c>
+      <c r="O223">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B224" t="s">
+        <v>236</v>
+      </c>
+      <c r="K224" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" t="b">
+        <v>0</v>
+      </c>
+      <c r="M224" t="b">
+        <v>1</v>
+      </c>
+      <c r="O224">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="225" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B225" t="s">
+        <v>237</v>
+      </c>
+      <c r="K225" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" t="b">
+        <v>0</v>
+      </c>
+      <c r="M225" t="b">
+        <v>1</v>
+      </c>
+      <c r="O225">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="226" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B226" t="s">
+        <v>238</v>
+      </c>
+      <c r="K226" t="b">
+        <v>0</v>
+      </c>
+      <c r="L226" t="b">
+        <v>0</v>
+      </c>
+      <c r="M226" t="b">
+        <v>1</v>
+      </c>
+      <c r="O226">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="227" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B227" t="s">
+        <v>239</v>
+      </c>
+      <c r="K227" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" t="b">
+        <v>0</v>
+      </c>
+      <c r="M227" t="b">
+        <v>1</v>
+      </c>
+      <c r="O227">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="228" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B228" t="s">
+        <v>240</v>
+      </c>
+      <c r="K228" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" t="b">
+        <v>0</v>
+      </c>
+      <c r="M228" t="b">
+        <v>1</v>
+      </c>
+      <c r="O228">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="229" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B229" t="s">
+        <v>241</v>
+      </c>
+      <c r="K229" t="b">
+        <v>0</v>
+      </c>
+      <c r="L229" t="b">
+        <v>0</v>
+      </c>
+      <c r="M229" t="b">
+        <v>1</v>
+      </c>
+      <c r="O229">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="230" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B230" t="s">
+        <v>242</v>
+      </c>
+      <c r="K230" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" t="b">
+        <v>0</v>
+      </c>
+      <c r="M230" t="b">
+        <v>1</v>
+      </c>
+      <c r="O230">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="231" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B231" t="s">
+        <v>243</v>
+      </c>
+      <c r="K231" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" t="b">
+        <v>0</v>
+      </c>
+      <c r="M231" t="b">
+        <v>1</v>
+      </c>
+      <c r="O231">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="232" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B232" t="s">
+        <v>244</v>
+      </c>
+      <c r="K232" t="b">
+        <v>0</v>
+      </c>
+      <c r="L232" t="b">
+        <v>0</v>
+      </c>
+      <c r="M232" t="b">
+        <v>1</v>
+      </c>
+      <c r="O232">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="233" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B233" t="s">
+        <v>245</v>
+      </c>
+      <c r="K233" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" t="b">
+        <v>0</v>
+      </c>
+      <c r="M233" t="b">
+        <v>1</v>
+      </c>
+      <c r="O233">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="234" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B234" t="s">
+        <v>246</v>
+      </c>
+      <c r="K234" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" t="b">
+        <v>0</v>
+      </c>
+      <c r="M234" t="b">
+        <v>1</v>
+      </c>
+      <c r="O234">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="235" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B235" t="s">
+        <v>247</v>
+      </c>
+      <c r="K235" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" t="b">
+        <v>0</v>
+      </c>
+      <c r="M235" t="b">
+        <v>1</v>
+      </c>
+      <c r="O235">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="236" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B236" t="s">
+        <v>248</v>
+      </c>
+      <c r="K236" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" t="b">
+        <v>0</v>
+      </c>
+      <c r="M236" t="b">
+        <v>1</v>
+      </c>
+      <c r="O236">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="237" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B237" t="s">
+        <v>249</v>
+      </c>
+      <c r="K237" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" t="b">
+        <v>0</v>
+      </c>
+      <c r="M237" t="b">
+        <v>1</v>
+      </c>
+      <c r="O237">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="238" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B238" t="s">
+        <v>250</v>
+      </c>
+      <c r="K238" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" t="b">
+        <v>0</v>
+      </c>
+      <c r="M238" t="b">
+        <v>1</v>
+      </c>
+      <c r="O238">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="239" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B239" t="s">
+        <v>251</v>
+      </c>
+      <c r="K239" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" t="b">
+        <v>0</v>
+      </c>
+      <c r="M239" t="b">
+        <v>1</v>
+      </c>
+      <c r="O239">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="240" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B240" t="s">
+        <v>252</v>
+      </c>
+      <c r="K240" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" t="b">
+        <v>0</v>
+      </c>
+      <c r="M240" t="b">
+        <v>1</v>
+      </c>
+      <c r="O240">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="241" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B241" t="s">
+        <v>253</v>
+      </c>
+      <c r="K241" t="b">
+        <v>0</v>
+      </c>
+      <c r="L241" t="b">
+        <v>0</v>
+      </c>
+      <c r="M241" t="b">
+        <v>1</v>
+      </c>
+      <c r="O241">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="242" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B242" t="s">
+        <v>254</v>
+      </c>
+      <c r="K242" t="b">
+        <v>0</v>
+      </c>
+      <c r="L242" t="b">
+        <v>0</v>
+      </c>
+      <c r="M242" t="b">
+        <v>1</v>
+      </c>
+      <c r="O242">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="243" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B243" t="s">
+        <v>255</v>
+      </c>
+      <c r="K243" t="b">
+        <v>0</v>
+      </c>
+      <c r="L243" t="b">
+        <v>0</v>
+      </c>
+      <c r="M243" t="b">
+        <v>1</v>
+      </c>
+      <c r="O243">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="244" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B244" t="s">
+        <v>256</v>
+      </c>
+      <c r="K244" t="b">
+        <v>0</v>
+      </c>
+      <c r="L244" t="b">
+        <v>0</v>
+      </c>
+      <c r="M244" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B245" t="s">
+        <v>257</v>
+      </c>
+      <c r="K245" t="b">
+        <v>0</v>
+      </c>
+      <c r="L245" t="b">
+        <v>0</v>
+      </c>
+      <c r="M245" t="b">
+        <v>1</v>
+      </c>
+      <c r="O245">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="246" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B246" t="s">
+        <v>258</v>
+      </c>
+      <c r="K246" t="b">
+        <v>0</v>
+      </c>
+      <c r="L246" t="b">
+        <v>0</v>
+      </c>
+      <c r="M246" t="b">
+        <v>1</v>
+      </c>
+      <c r="O246">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="247" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B247" t="s">
+        <v>259</v>
+      </c>
+      <c r="K247" t="b">
+        <v>0</v>
+      </c>
+      <c r="L247" t="b">
+        <v>0</v>
+      </c>
+      <c r="M247" t="b">
+        <v>1</v>
+      </c>
+      <c r="O247">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="248" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B248" t="s">
+        <v>260</v>
+      </c>
+      <c r="K248" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" t="b">
+        <v>0</v>
+      </c>
+      <c r="M248" t="b">
+        <v>1</v>
+      </c>
+      <c r="O248">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="249" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B249" t="s">
+        <v>261</v>
+      </c>
+      <c r="K249" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" t="b">
+        <v>0</v>
+      </c>
+      <c r="M249" t="b">
+        <v>1</v>
+      </c>
+      <c r="O249">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="250" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B250" t="s">
+        <v>262</v>
+      </c>
+      <c r="K250" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" t="b">
+        <v>0</v>
+      </c>
+      <c r="M250" t="b">
+        <v>1</v>
+      </c>
+      <c r="O250">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="251" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B251" t="s">
+        <v>263</v>
+      </c>
+      <c r="K251" t="b">
+        <v>0</v>
+      </c>
+      <c r="L251" t="b">
+        <v>0</v>
+      </c>
+      <c r="M251" t="b">
+        <v>1</v>
+      </c>
+      <c r="O251">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="252" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B252" t="s">
+        <v>264</v>
+      </c>
+      <c r="K252" t="b">
+        <v>0</v>
+      </c>
+      <c r="L252" t="b">
+        <v>0</v>
+      </c>
+      <c r="M252" t="b">
+        <v>1</v>
+      </c>
+      <c r="O252">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="253" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B253" t="s">
+        <v>265</v>
+      </c>
+      <c r="K253" t="b">
+        <v>0</v>
+      </c>
+      <c r="L253" t="b">
+        <v>0</v>
+      </c>
+      <c r="M253" t="b">
+        <v>1</v>
+      </c>
+      <c r="O253">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="254" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B254" t="s">
+        <v>266</v>
+      </c>
+      <c r="K254" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" t="b">
+        <v>0</v>
+      </c>
+      <c r="M254" t="b">
+        <v>1</v>
+      </c>
+      <c r="O254">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="255" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B255" t="s">
+        <v>267</v>
+      </c>
+      <c r="K255" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" t="b">
+        <v>0</v>
+      </c>
+      <c r="M255" t="b">
+        <v>1</v>
+      </c>
+      <c r="O255">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="256" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B256" t="s">
+        <v>268</v>
+      </c>
+      <c r="K256" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" t="b">
+        <v>0</v>
+      </c>
+      <c r="M256" t="b">
+        <v>1</v>
+      </c>
+      <c r="O256">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="257" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B257" t="s">
+        <v>269</v>
+      </c>
+      <c r="K257" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" t="b">
+        <v>0</v>
+      </c>
+      <c r="M257" t="b">
+        <v>1</v>
+      </c>
+      <c r="O257">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="258" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B258" t="s">
+        <v>270</v>
+      </c>
+      <c r="K258" t="b">
+        <v>0</v>
+      </c>
+      <c r="L258" t="b">
+        <v>0</v>
+      </c>
+      <c r="M258" t="b">
+        <v>1</v>
+      </c>
+      <c r="O258">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="259" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B259" t="s">
+        <v>271</v>
+      </c>
+      <c r="K259" t="b">
+        <v>0</v>
+      </c>
+      <c r="L259" t="b">
+        <v>0</v>
+      </c>
+      <c r="M259" t="b">
+        <v>1</v>
+      </c>
+      <c r="O259">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="260" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B260" t="s">
+        <v>272</v>
+      </c>
+      <c r="K260" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" t="b">
+        <v>0</v>
+      </c>
+      <c r="M260" t="b">
+        <v>1</v>
+      </c>
+      <c r="O260">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="261" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B261" t="s">
+        <v>273</v>
+      </c>
+      <c r="K261" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" t="b">
+        <v>0</v>
+      </c>
+      <c r="M261" t="b">
+        <v>1</v>
+      </c>
+      <c r="O261">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="262" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B262" t="s">
+        <v>274</v>
+      </c>
+      <c r="K262" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" t="b">
+        <v>0</v>
+      </c>
+      <c r="M262" t="b">
+        <v>1</v>
+      </c>
+      <c r="O262">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="263" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B263" t="s">
+        <v>275</v>
+      </c>
+      <c r="K263" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" t="b">
+        <v>0</v>
+      </c>
+      <c r="M263" t="b">
+        <v>1</v>
+      </c>
+      <c r="O263">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="264" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B264" t="s">
+        <v>276</v>
+      </c>
+      <c r="K264" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" t="b">
+        <v>0</v>
+      </c>
+      <c r="M264" t="b">
+        <v>1</v>
+      </c>
+      <c r="O264">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="265" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B265" t="s">
+        <v>277</v>
+      </c>
+      <c r="K265" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" t="b">
+        <v>0</v>
+      </c>
+      <c r="M265" t="b">
+        <v>1</v>
+      </c>
+      <c r="O265">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="266" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B266" t="s">
+        <v>278</v>
+      </c>
+      <c r="K266" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" t="b">
+        <v>0</v>
+      </c>
+      <c r="M266" t="b">
+        <v>1</v>
+      </c>
+      <c r="O266">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="267" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B267" t="s">
+        <v>279</v>
+      </c>
+      <c r="K267" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" t="b">
+        <v>0</v>
+      </c>
+      <c r="M267" t="b">
+        <v>1</v>
+      </c>
+      <c r="O267">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="268" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B268" t="s">
+        <v>280</v>
+      </c>
+      <c r="K268" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" t="b">
+        <v>0</v>
+      </c>
+      <c r="M268" t="b">
+        <v>1</v>
+      </c>
+      <c r="O268">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="269" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B269" t="s">
+        <v>281</v>
+      </c>
+      <c r="K269" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" t="b">
+        <v>0</v>
+      </c>
+      <c r="M269" t="b">
+        <v>1</v>
+      </c>
+      <c r="O269">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="270" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B270" t="s">
+        <v>282</v>
+      </c>
+      <c r="K270" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" t="b">
+        <v>0</v>
+      </c>
+      <c r="M270" t="b">
+        <v>1</v>
+      </c>
+      <c r="O270">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="271" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B271" t="s">
+        <v>283</v>
+      </c>
+      <c r="K271" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" t="b">
+        <v>0</v>
+      </c>
+      <c r="M271" t="b">
+        <v>1</v>
+      </c>
+      <c r="O271">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="272" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B272" t="s">
+        <v>284</v>
+      </c>
+      <c r="K272" t="b">
+        <v>0</v>
+      </c>
+      <c r="L272" t="b">
+        <v>0</v>
+      </c>
+      <c r="M272" t="b">
+        <v>1</v>
+      </c>
+      <c r="O272">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="273" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B273" t="s">
+        <v>285</v>
+      </c>
+      <c r="K273" t="b">
+        <v>0</v>
+      </c>
+      <c r="L273" t="b">
+        <v>0</v>
+      </c>
+      <c r="M273" t="b">
+        <v>1</v>
+      </c>
+      <c r="O273">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="274" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B274" t="s">
+        <v>286</v>
+      </c>
+      <c r="K274" t="b">
+        <v>0</v>
+      </c>
+      <c r="L274" t="b">
+        <v>0</v>
+      </c>
+      <c r="M274" t="b">
+        <v>1</v>
+      </c>
+      <c r="O274">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="275" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B275" t="s">
+        <v>287</v>
+      </c>
+      <c r="K275" t="b">
+        <v>0</v>
+      </c>
+      <c r="L275" t="b">
+        <v>0</v>
+      </c>
+      <c r="M275" t="b">
+        <v>1</v>
+      </c>
+      <c r="O275">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="276" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B276" t="s">
+        <v>288</v>
+      </c>
+      <c r="K276" t="b">
+        <v>0</v>
+      </c>
+      <c r="L276" t="b">
+        <v>0</v>
+      </c>
+      <c r="M276" t="b">
+        <v>1</v>
+      </c>
+      <c r="O276">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="277" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B277" t="s">
+        <v>289</v>
+      </c>
+      <c r="K277" t="b">
+        <v>0</v>
+      </c>
+      <c r="L277" t="b">
+        <v>0</v>
+      </c>
+      <c r="M277" t="b">
+        <v>1</v>
+      </c>
+      <c r="O277">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="278" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B278" t="s">
+        <v>290</v>
+      </c>
+      <c r="K278" t="b">
+        <v>0</v>
+      </c>
+      <c r="L278" t="b">
+        <v>0</v>
+      </c>
+      <c r="M278" t="b">
+        <v>1</v>
+      </c>
+      <c r="O278">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="279" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B279" t="s">
+        <v>291</v>
+      </c>
+      <c r="K279" t="b">
+        <v>0</v>
+      </c>
+      <c r="L279" t="b">
+        <v>0</v>
+      </c>
+      <c r="M279" t="b">
+        <v>1</v>
+      </c>
+      <c r="O279">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="280" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B280" t="s">
+        <v>292</v>
+      </c>
+      <c r="K280" t="b">
+        <v>0</v>
+      </c>
+      <c r="L280" t="b">
+        <v>0</v>
+      </c>
+      <c r="M280" t="b">
+        <v>1</v>
+      </c>
+      <c r="O280">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="281" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B281" t="s">
+        <v>293</v>
+      </c>
+      <c r="K281" t="b">
+        <v>0</v>
+      </c>
+      <c r="L281" t="b">
+        <v>0</v>
+      </c>
+      <c r="M281" t="b">
+        <v>1</v>
+      </c>
+      <c r="O281">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="282" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B282" t="s">
+        <v>294</v>
+      </c>
+      <c r="K282" t="b">
+        <v>0</v>
+      </c>
+      <c r="L282" t="b">
+        <v>0</v>
+      </c>
+      <c r="M282" t="b">
+        <v>1</v>
+      </c>
+      <c r="O282">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="283" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B283" t="s">
+        <v>295</v>
+      </c>
+      <c r="K283" t="b">
+        <v>0</v>
+      </c>
+      <c r="L283" t="b">
+        <v>0</v>
+      </c>
+      <c r="M283" t="b">
+        <v>1</v>
+      </c>
+      <c r="O283">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="284" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B284" t="s">
+        <v>296</v>
+      </c>
+      <c r="K284" t="b">
+        <v>0</v>
+      </c>
+      <c r="L284" t="b">
+        <v>0</v>
+      </c>
+      <c r="M284" t="b">
+        <v>1</v>
+      </c>
+      <c r="O284">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="285" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B285" t="s">
+        <v>297</v>
+      </c>
+      <c r="K285" t="b">
+        <v>0</v>
+      </c>
+      <c r="L285" t="b">
+        <v>0</v>
+      </c>
+      <c r="M285" t="b">
+        <v>1</v>
+      </c>
+      <c r="O285">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="286" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B286" t="s">
+        <v>298</v>
+      </c>
+      <c r="K286" t="b">
+        <v>0</v>
+      </c>
+      <c r="L286" t="b">
+        <v>0</v>
+      </c>
+      <c r="M286" t="b">
+        <v>1</v>
+      </c>
+      <c r="O286">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="287" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B287" t="s">
+        <v>299</v>
+      </c>
+      <c r="K287" t="b">
+        <v>0</v>
+      </c>
+      <c r="L287" t="b">
+        <v>0</v>
+      </c>
+      <c r="M287" t="b">
+        <v>1</v>
+      </c>
+      <c r="O287">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="288" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B288" t="s">
+        <v>300</v>
+      </c>
+      <c r="K288" t="b">
+        <v>0</v>
+      </c>
+      <c r="L288" t="b">
+        <v>0</v>
+      </c>
+      <c r="M288" t="b">
+        <v>1</v>
+      </c>
+      <c r="O288">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="289" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B289" t="s">
+        <v>301</v>
+      </c>
+      <c r="K289" t="b">
+        <v>0</v>
+      </c>
+      <c r="L289" t="b">
+        <v>0</v>
+      </c>
+      <c r="M289" t="b">
+        <v>1</v>
+      </c>
+      <c r="O289">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="290" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B290" t="s">
+        <v>302</v>
+      </c>
+      <c r="K290" t="b">
+        <v>0</v>
+      </c>
+      <c r="L290" t="b">
+        <v>0</v>
+      </c>
+      <c r="M290" t="b">
+        <v>1</v>
+      </c>
+      <c r="O290">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="291" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B291" t="s">
+        <v>303</v>
+      </c>
+      <c r="K291" t="b">
+        <v>0</v>
+      </c>
+      <c r="L291" t="b">
+        <v>0</v>
+      </c>
+      <c r="M291" t="b">
+        <v>1</v>
+      </c>
+      <c r="O291">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="292" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B292" t="s">
+        <v>304</v>
+      </c>
+      <c r="K292" t="b">
+        <v>0</v>
+      </c>
+      <c r="L292" t="b">
+        <v>0</v>
+      </c>
+      <c r="M292" t="b">
+        <v>1</v>
+      </c>
+      <c r="O292">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="293" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B293" t="s">
+        <v>305</v>
+      </c>
+      <c r="K293" t="b">
+        <v>0</v>
+      </c>
+      <c r="L293" t="b">
+        <v>0</v>
+      </c>
+      <c r="M293" t="b">
+        <v>1</v>
+      </c>
+      <c r="O293">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="294" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B294" t="s">
+        <v>306</v>
+      </c>
+      <c r="K294" t="b">
+        <v>0</v>
+      </c>
+      <c r="L294" t="b">
+        <v>0</v>
+      </c>
+      <c r="M294" t="b">
+        <v>1</v>
+      </c>
+      <c r="O294">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="295" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B295" t="s">
+        <v>307</v>
+      </c>
+      <c r="K295" t="b">
+        <v>0</v>
+      </c>
+      <c r="L295" t="b">
+        <v>0</v>
+      </c>
+      <c r="M295" t="b">
+        <v>1</v>
+      </c>
+      <c r="O295">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="296" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B296" t="s">
+        <v>308</v>
+      </c>
+      <c r="K296" t="b">
+        <v>0</v>
+      </c>
+      <c r="L296" t="b">
+        <v>0</v>
+      </c>
+      <c r="M296" t="b">
+        <v>1</v>
+      </c>
+      <c r="O296">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="297" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B297" t="s">
+        <v>309</v>
+      </c>
+      <c r="K297" t="b">
+        <v>0</v>
+      </c>
+      <c r="L297" t="b">
+        <v>0</v>
+      </c>
+      <c r="M297" t="b">
+        <v>1</v>
+      </c>
+      <c r="O297">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="298" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B298" t="s">
+        <v>310</v>
+      </c>
+      <c r="K298" t="b">
+        <v>0</v>
+      </c>
+      <c r="L298" t="b">
+        <v>0</v>
+      </c>
+      <c r="M298" t="b">
+        <v>1</v>
+      </c>
+      <c r="O298">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="299" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B299" t="s">
+        <v>311</v>
+      </c>
+      <c r="K299" t="b">
+        <v>0</v>
+      </c>
+      <c r="L299" t="b">
+        <v>0</v>
+      </c>
+      <c r="M299" t="b">
+        <v>1</v>
+      </c>
+      <c r="O299">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="300" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B300" t="s">
+        <v>312</v>
+      </c>
+      <c r="K300" t="b">
+        <v>0</v>
+      </c>
+      <c r="L300" t="b">
+        <v>0</v>
+      </c>
+      <c r="M300" t="b">
+        <v>1</v>
+      </c>
+      <c r="O300">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="301" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B301" t="s">
+        <v>313</v>
+      </c>
+      <c r="K301" t="b">
+        <v>0</v>
+      </c>
+      <c r="L301" t="b">
+        <v>0</v>
+      </c>
+      <c r="M301" t="b">
+        <v>1</v>
+      </c>
+      <c r="O301">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="302" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B302" t="s">
+        <v>314</v>
+      </c>
+      <c r="K302" t="b">
+        <v>0</v>
+      </c>
+      <c r="L302" t="b">
+        <v>0</v>
+      </c>
+      <c r="M302" t="b">
+        <v>1</v>
+      </c>
+      <c r="O302">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="303" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B303" t="s">
+        <v>315</v>
+      </c>
+      <c r="K303" t="b">
+        <v>0</v>
+      </c>
+      <c r="L303" t="b">
+        <v>0</v>
+      </c>
+      <c r="M303" t="b">
+        <v>1</v>
+      </c>
+      <c r="O303">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="304" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B304" t="s">
+        <v>316</v>
+      </c>
+      <c r="K304" t="b">
+        <v>0</v>
+      </c>
+      <c r="L304" t="b">
+        <v>0</v>
+      </c>
+      <c r="M304" t="b">
+        <v>1</v>
+      </c>
+      <c r="O304">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="305" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B305" t="s">
+        <v>317</v>
+      </c>
+      <c r="K305" t="b">
+        <v>0</v>
+      </c>
+      <c r="L305" t="b">
+        <v>0</v>
+      </c>
+      <c r="M305" t="b">
+        <v>1</v>
+      </c>
+      <c r="O305">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="306" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B306" t="s">
+        <v>318</v>
+      </c>
+      <c r="K306" t="b">
+        <v>0</v>
+      </c>
+      <c r="L306" t="b">
+        <v>0</v>
+      </c>
+      <c r="M306" t="b">
+        <v>1</v>
+      </c>
+      <c r="O306">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="307" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B307" t="s">
+        <v>319</v>
+      </c>
+      <c r="K307" t="b">
+        <v>0</v>
+      </c>
+      <c r="L307" t="b">
+        <v>0</v>
+      </c>
+      <c r="M307" t="b">
+        <v>1</v>
+      </c>
+      <c r="O307">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="308" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B308" t="s">
+        <v>320</v>
+      </c>
+      <c r="K308" t="b">
+        <v>0</v>
+      </c>
+      <c r="L308" t="b">
+        <v>0</v>
+      </c>
+      <c r="M308" t="b">
+        <v>1</v>
+      </c>
+      <c r="O308">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="309" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B309" t="s">
+        <v>321</v>
+      </c>
+      <c r="K309" t="b">
+        <v>0</v>
+      </c>
+      <c r="L309" t="b">
+        <v>0</v>
+      </c>
+      <c r="M309" t="b">
+        <v>1</v>
+      </c>
+      <c r="O309">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="310" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B310" t="s">
+        <v>322</v>
+      </c>
+      <c r="K310" t="b">
+        <v>0</v>
+      </c>
+      <c r="L310" t="b">
+        <v>0</v>
+      </c>
+      <c r="M310" t="b">
+        <v>1</v>
+      </c>
+      <c r="O310">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="311" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B311" t="s">
+        <v>323</v>
+      </c>
+      <c r="K311" t="b">
+        <v>0</v>
+      </c>
+      <c r="L311" t="b">
+        <v>0</v>
+      </c>
+      <c r="M311" t="b">
+        <v>1</v>
+      </c>
+      <c r="O311">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="312" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B312" t="s">
+        <v>324</v>
+      </c>
+      <c r="K312" t="b">
+        <v>0</v>
+      </c>
+      <c r="L312" t="b">
+        <v>0</v>
+      </c>
+      <c r="M312" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B313" t="s">
+        <v>325</v>
+      </c>
+      <c r="K313" t="b">
+        <v>0</v>
+      </c>
+      <c r="L313" t="b">
+        <v>0</v>
+      </c>
+      <c r="M313" t="b">
+        <v>1</v>
+      </c>
+      <c r="O313">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="314" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B314" t="s">
+        <v>326</v>
+      </c>
+      <c r="K314" t="b">
+        <v>0</v>
+      </c>
+      <c r="L314" t="b">
+        <v>0</v>
+      </c>
+      <c r="M314" t="b">
+        <v>1</v>
+      </c>
+      <c r="O314">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="315" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B315" t="s">
+        <v>327</v>
+      </c>
+      <c r="K315" t="b">
+        <v>0</v>
+      </c>
+      <c r="L315" t="b">
+        <v>0</v>
+      </c>
+      <c r="M315" t="b">
+        <v>1</v>
+      </c>
+      <c r="O315">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="316" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B316" t="s">
+        <v>328</v>
+      </c>
+      <c r="K316" t="b">
+        <v>0</v>
+      </c>
+      <c r="L316" t="b">
+        <v>0</v>
+      </c>
+      <c r="M316" t="b">
+        <v>1</v>
+      </c>
+      <c r="O316">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="317" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B317" t="s">
+        <v>329</v>
+      </c>
+      <c r="K317" t="b">
+        <v>0</v>
+      </c>
+      <c r="L317" t="b">
+        <v>0</v>
+      </c>
+      <c r="M317" t="b">
+        <v>1</v>
+      </c>
+      <c r="O317">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="318" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B318" t="s">
+        <v>330</v>
+      </c>
+      <c r="K318" t="b">
+        <v>0</v>
+      </c>
+      <c r="L318" t="b">
+        <v>0</v>
+      </c>
+      <c r="M318" t="b">
+        <v>1</v>
+      </c>
+      <c r="O318">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="319" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B319" t="s">
+        <v>331</v>
+      </c>
+      <c r="K319" t="b">
+        <v>0</v>
+      </c>
+      <c r="L319" t="b">
+        <v>0</v>
+      </c>
+      <c r="M319" t="b">
+        <v>1</v>
+      </c>
+      <c r="O319">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="320" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B320" t="s">
+        <v>332</v>
+      </c>
+      <c r="K320" t="b">
+        <v>0</v>
+      </c>
+      <c r="L320" t="b">
+        <v>0</v>
+      </c>
+      <c r="M320" t="b">
+        <v>1</v>
+      </c>
+      <c r="O320">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="321" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B321" t="s">
+        <v>333</v>
+      </c>
+      <c r="K321" t="b">
+        <v>0</v>
+      </c>
+      <c r="L321" t="b">
+        <v>0</v>
+      </c>
+      <c r="M321" t="b">
+        <v>1</v>
+      </c>
+      <c r="O321">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="322" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B322" t="s">
+        <v>334</v>
+      </c>
+      <c r="K322" t="b">
+        <v>0</v>
+      </c>
+      <c r="L322" t="b">
+        <v>0</v>
+      </c>
+      <c r="M322" t="b">
+        <v>1</v>
+      </c>
+      <c r="O322">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="323" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B323" t="s">
+        <v>335</v>
+      </c>
+      <c r="K323" t="b">
+        <v>0</v>
+      </c>
+      <c r="L323" t="b">
+        <v>0</v>
+      </c>
+      <c r="M323" t="b">
+        <v>1</v>
+      </c>
+      <c r="O323">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="324" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B324" t="s">
+        <v>336</v>
+      </c>
+      <c r="K324" t="b">
+        <v>0</v>
+      </c>
+      <c r="L324" t="b">
+        <v>0</v>
+      </c>
+      <c r="M324" t="b">
+        <v>1</v>
+      </c>
+      <c r="O324">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="325" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B325" t="s">
+        <v>337</v>
+      </c>
+      <c r="K325" t="b">
+        <v>0</v>
+      </c>
+      <c r="L325" t="b">
+        <v>0</v>
+      </c>
+      <c r="M325" t="b">
+        <v>1</v>
+      </c>
+      <c r="O325">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="326" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B326" t="s">
+        <v>338</v>
+      </c>
+      <c r="K326" t="b">
+        <v>0</v>
+      </c>
+      <c r="L326" t="b">
+        <v>0</v>
+      </c>
+      <c r="M326" t="b">
+        <v>1</v>
+      </c>
+      <c r="O326">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="327" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B327" t="s">
+        <v>339</v>
+      </c>
+      <c r="K327" t="b">
+        <v>0</v>
+      </c>
+      <c r="L327" t="b">
+        <v>0</v>
+      </c>
+      <c r="M327" t="b">
+        <v>1</v>
+      </c>
+      <c r="O327">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="328" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B328" t="s">
+        <v>340</v>
+      </c>
+      <c r="K328" t="b">
+        <v>0</v>
+      </c>
+      <c r="L328" t="b">
+        <v>0</v>
+      </c>
+      <c r="M328" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B329" t="s">
+        <v>341</v>
+      </c>
+      <c r="K329" t="b">
+        <v>0</v>
+      </c>
+      <c r="L329" t="b">
+        <v>0</v>
+      </c>
+      <c r="M329" t="b">
+        <v>1</v>
+      </c>
+      <c r="O329">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="330" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B330" t="s">
+        <v>342</v>
+      </c>
+      <c r="K330" t="b">
+        <v>0</v>
+      </c>
+      <c r="L330" t="b">
+        <v>0</v>
+      </c>
+      <c r="M330" t="b">
+        <v>1</v>
+      </c>
+      <c r="O330">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="331" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B331" t="s">
+        <v>343</v>
+      </c>
+      <c r="K331" t="b">
+        <v>0</v>
+      </c>
+      <c r="L331" t="b">
+        <v>0</v>
+      </c>
+      <c r="M331" t="b">
+        <v>1</v>
+      </c>
+      <c r="O331">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="332" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B332" t="s">
+        <v>344</v>
+      </c>
+      <c r="K332" t="b">
+        <v>0</v>
+      </c>
+      <c r="L332" t="b">
+        <v>0</v>
+      </c>
+      <c r="M332" t="b">
+        <v>1</v>
+      </c>
+      <c r="O332">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="333" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B333" t="s">
+        <v>345</v>
+      </c>
+      <c r="K333" t="b">
+        <v>0</v>
+      </c>
+      <c r="L333" t="b">
+        <v>0</v>
+      </c>
+      <c r="M333" t="b">
+        <v>1</v>
+      </c>
+      <c r="O333">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="334" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B334" t="s">
+        <v>346</v>
+      </c>
+      <c r="K334" t="b">
+        <v>0</v>
+      </c>
+      <c r="L334" t="b">
+        <v>0</v>
+      </c>
+      <c r="M334" t="b">
+        <v>1</v>
+      </c>
+      <c r="O334">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="335" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B335" t="s">
+        <v>347</v>
+      </c>
+      <c r="K335" t="b">
+        <v>0</v>
+      </c>
+      <c r="L335" t="b">
+        <v>0</v>
+      </c>
+      <c r="M335" t="b">
+        <v>1</v>
+      </c>
+      <c r="O335">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="336" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B336" t="s">
+        <v>348</v>
+      </c>
+      <c r="K336" t="b">
+        <v>0</v>
+      </c>
+      <c r="L336" t="b">
+        <v>0</v>
+      </c>
+      <c r="M336" t="b">
+        <v>1</v>
+      </c>
+      <c r="O336">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="337" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B337" t="s">
+        <v>349</v>
+      </c>
+      <c r="K337" t="b">
+        <v>0</v>
+      </c>
+      <c r="L337" t="b">
+        <v>0</v>
+      </c>
+      <c r="M337" t="b">
+        <v>1</v>
+      </c>
+      <c r="O337">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="338" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B338" t="s">
+        <v>350</v>
+      </c>
+      <c r="K338" t="b">
+        <v>0</v>
+      </c>
+      <c r="L338" t="b">
+        <v>0</v>
+      </c>
+      <c r="M338" t="b">
+        <v>1</v>
+      </c>
+      <c r="O338">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="339" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B339" t="s">
+        <v>351</v>
+      </c>
+      <c r="K339" t="b">
+        <v>0</v>
+      </c>
+      <c r="L339" t="b">
+        <v>0</v>
+      </c>
+      <c r="M339" t="b">
+        <v>1</v>
+      </c>
+      <c r="O339">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="340" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B340" t="s">
+        <v>352</v>
+      </c>
+      <c r="K340" t="b">
+        <v>0</v>
+      </c>
+      <c r="L340" t="b">
+        <v>0</v>
+      </c>
+      <c r="M340" t="b">
+        <v>1</v>
+      </c>
+      <c r="O340">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="341" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B341" t="s">
+        <v>353</v>
+      </c>
+      <c r="K341" t="b">
+        <v>0</v>
+      </c>
+      <c r="L341" t="b">
+        <v>0</v>
+      </c>
+      <c r="M341" t="b">
+        <v>1</v>
+      </c>
+      <c r="O341">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="342" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B342" t="s">
+        <v>354</v>
+      </c>
+      <c r="K342" t="b">
+        <v>0</v>
+      </c>
+      <c r="L342" t="b">
+        <v>0</v>
+      </c>
+      <c r="M342" t="b">
+        <v>1</v>
+      </c>
+      <c r="O342">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="343" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B343" t="s">
+        <v>355</v>
+      </c>
+      <c r="K343" t="b">
+        <v>0</v>
+      </c>
+      <c r="L343" t="b">
+        <v>0</v>
+      </c>
+      <c r="M343" t="b">
+        <v>1</v>
+      </c>
+      <c r="O343">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="344" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B344" t="s">
+        <v>356</v>
+      </c>
+      <c r="K344" t="b">
+        <v>0</v>
+      </c>
+      <c r="L344" t="b">
+        <v>0</v>
+      </c>
+      <c r="M344" t="b">
+        <v>1</v>
+      </c>
+      <c r="O344">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="345" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B345" t="s">
+        <v>357</v>
+      </c>
+      <c r="K345" t="b">
+        <v>0</v>
+      </c>
+      <c r="L345" t="b">
+        <v>0</v>
+      </c>
+      <c r="M345" t="b">
+        <v>1</v>
+      </c>
+      <c r="O345">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="346" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B346" t="s">
+        <v>358</v>
+      </c>
+      <c r="K346" t="b">
+        <v>0</v>
+      </c>
+      <c r="L346" t="b">
+        <v>0</v>
+      </c>
+      <c r="M346" t="b">
+        <v>1</v>
+      </c>
+      <c r="O346">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="347" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B347" t="s">
+        <v>359</v>
+      </c>
+      <c r="K347" t="b">
+        <v>0</v>
+      </c>
+      <c r="L347" t="b">
+        <v>0</v>
+      </c>
+      <c r="M347" t="b">
+        <v>1</v>
+      </c>
+      <c r="O347">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="348" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B348" t="s">
+        <v>360</v>
+      </c>
+      <c r="K348" t="b">
+        <v>0</v>
+      </c>
+      <c r="L348" t="b">
+        <v>0</v>
+      </c>
+      <c r="M348" t="b">
+        <v>1</v>
+      </c>
+      <c r="O348">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="349" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B349" t="s">
+        <v>361</v>
+      </c>
+      <c r="K349" t="b">
+        <v>0</v>
+      </c>
+      <c r="L349" t="b">
+        <v>0</v>
+      </c>
+      <c r="M349" t="b">
+        <v>1</v>
+      </c>
+      <c r="O349">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="350" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B350" t="s">
+        <v>362</v>
+      </c>
+      <c r="K350" t="b">
+        <v>0</v>
+      </c>
+      <c r="L350" t="b">
+        <v>0</v>
+      </c>
+      <c r="M350" t="b">
+        <v>1</v>
+      </c>
+      <c r="O350">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="351" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B351" t="s">
+        <v>363</v>
+      </c>
+      <c r="K351" t="b">
+        <v>0</v>
+      </c>
+      <c r="L351" t="b">
+        <v>0</v>
+      </c>
+      <c r="M351" t="b">
+        <v>1</v>
+      </c>
+      <c r="O351">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="352" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B352" t="s">
+        <v>364</v>
+      </c>
+      <c r="K352" t="b">
+        <v>0</v>
+      </c>
+      <c r="L352" t="b">
+        <v>0</v>
+      </c>
+      <c r="M352" t="b">
+        <v>1</v>
+      </c>
+      <c r="O352">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="353" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B353" t="s">
+        <v>365</v>
+      </c>
+      <c r="K353" t="b">
+        <v>0</v>
+      </c>
+      <c r="L353" t="b">
+        <v>0</v>
+      </c>
+      <c r="M353" t="b">
+        <v>1</v>
+      </c>
+      <c r="O353">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="354" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B354" t="s">
+        <v>366</v>
+      </c>
+      <c r="K354" t="b">
+        <v>0</v>
+      </c>
+      <c r="L354" t="b">
+        <v>0</v>
+      </c>
+      <c r="M354" t="b">
+        <v>1</v>
+      </c>
+      <c r="O354">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="355" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B355" t="s">
+        <v>367</v>
+      </c>
+      <c r="K355" t="b">
+        <v>0</v>
+      </c>
+      <c r="L355" t="b">
+        <v>0</v>
+      </c>
+      <c r="M355" t="b">
+        <v>1</v>
+      </c>
+      <c r="O355">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="356" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B356" t="s">
+        <v>368</v>
+      </c>
+      <c r="K356" t="b">
+        <v>0</v>
+      </c>
+      <c r="L356" t="b">
+        <v>0</v>
+      </c>
+      <c r="M356" t="b">
+        <v>1</v>
+      </c>
+      <c r="O356">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="357" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B357" t="s">
+        <v>369</v>
+      </c>
+      <c r="K357" t="b">
+        <v>0</v>
+      </c>
+      <c r="L357" t="b">
+        <v>0</v>
+      </c>
+      <c r="M357" t="b">
+        <v>1</v>
+      </c>
+      <c r="O357">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="358" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B358" t="s">
+        <v>370</v>
+      </c>
+      <c r="K358" t="b">
+        <v>0</v>
+      </c>
+      <c r="L358" t="b">
+        <v>0</v>
+      </c>
+      <c r="M358" t="b">
+        <v>1</v>
+      </c>
+      <c r="O358">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="359" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B359" t="s">
+        <v>371</v>
+      </c>
+      <c r="K359" t="b">
+        <v>0</v>
+      </c>
+      <c r="L359" t="b">
+        <v>0</v>
+      </c>
+      <c r="M359" t="b">
+        <v>1</v>
+      </c>
+      <c r="O359">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="360" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B360" t="s">
+        <v>372</v>
+      </c>
+      <c r="K360" t="b">
+        <v>0</v>
+      </c>
+      <c r="L360" t="b">
+        <v>0</v>
+      </c>
+      <c r="M360" t="b">
+        <v>1</v>
+      </c>
+      <c r="O360">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="361" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B361" t="s">
+        <v>373</v>
+      </c>
+      <c r="K361" t="b">
+        <v>0</v>
+      </c>
+      <c r="L361" t="b">
+        <v>0</v>
+      </c>
+      <c r="M361" t="b">
+        <v>1</v>
+      </c>
+      <c r="O361">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="362" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B362" t="s">
+        <v>374</v>
+      </c>
+      <c r="K362" t="b">
+        <v>0</v>
+      </c>
+      <c r="L362" t="b">
+        <v>0</v>
+      </c>
+      <c r="M362" t="b">
+        <v>1</v>
+      </c>
+      <c r="O362">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="363" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B363" t="s">
+        <v>375</v>
+      </c>
+      <c r="K363" t="b">
+        <v>0</v>
+      </c>
+      <c r="L363" t="b">
+        <v>0</v>
+      </c>
+      <c r="M363" t="b">
+        <v>1</v>
+      </c>
+      <c r="O363">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="364" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B364" t="s">
+        <v>376</v>
+      </c>
+      <c r="K364" t="b">
+        <v>0</v>
+      </c>
+      <c r="L364" t="b">
+        <v>0</v>
+      </c>
+      <c r="M364" t="b">
+        <v>1</v>
+      </c>
+      <c r="O364">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="365" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B365" t="s">
+        <v>377</v>
+      </c>
+      <c r="K365" t="b">
+        <v>0</v>
+      </c>
+      <c r="L365" t="b">
+        <v>0</v>
+      </c>
+      <c r="M365" t="b">
+        <v>1</v>
+      </c>
+      <c r="O365">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="366" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B366" t="s">
+        <v>378</v>
+      </c>
+      <c r="K366" t="b">
+        <v>0</v>
+      </c>
+      <c r="L366" t="b">
+        <v>0</v>
+      </c>
+      <c r="M366" t="b">
+        <v>1</v>
+      </c>
+      <c r="O366">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="367" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B367" t="s">
+        <v>379</v>
+      </c>
+      <c r="K367" t="b">
+        <v>0</v>
+      </c>
+      <c r="L367" t="b">
+        <v>0</v>
+      </c>
+      <c r="M367" t="b">
+        <v>1</v>
+      </c>
+      <c r="O367">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="368" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B368" t="s">
+        <v>380</v>
+      </c>
+      <c r="K368" t="b">
+        <v>0</v>
+      </c>
+      <c r="L368" t="b">
+        <v>0</v>
+      </c>
+      <c r="M368" t="b">
+        <v>1</v>
+      </c>
+      <c r="O368">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="369" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B369" t="s">
+        <v>381</v>
+      </c>
+      <c r="K369" t="b">
+        <v>0</v>
+      </c>
+      <c r="L369" t="b">
+        <v>0</v>
+      </c>
+      <c r="M369" t="b">
+        <v>1</v>
+      </c>
+      <c r="O369">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="370" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B370" t="s">
+        <v>382</v>
+      </c>
+      <c r="K370" t="b">
+        <v>0</v>
+      </c>
+      <c r="L370" t="b">
+        <v>0</v>
+      </c>
+      <c r="M370" t="b">
+        <v>1</v>
+      </c>
+      <c r="O370">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="371" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B371" t="s">
+        <v>383</v>
+      </c>
+      <c r="K371" t="b">
+        <v>0</v>
+      </c>
+      <c r="L371" t="b">
+        <v>0</v>
+      </c>
+      <c r="M371" t="b">
+        <v>1</v>
+      </c>
+      <c r="O371">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="372" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B372" t="s">
+        <v>384</v>
+      </c>
+      <c r="K372" t="b">
+        <v>0</v>
+      </c>
+      <c r="L372" t="b">
+        <v>0</v>
+      </c>
+      <c r="M372" t="b">
+        <v>1</v>
+      </c>
+      <c r="O372">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="373" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B373" t="s">
+        <v>385</v>
+      </c>
+      <c r="K373" t="b">
+        <v>0</v>
+      </c>
+      <c r="L373" t="b">
+        <v>0</v>
+      </c>
+      <c r="M373" t="b">
+        <v>1</v>
+      </c>
+      <c r="O373">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="374" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B374" t="s">
+        <v>386</v>
+      </c>
+      <c r="K374" t="b">
+        <v>0</v>
+      </c>
+      <c r="L374" t="b">
+        <v>0</v>
+      </c>
+      <c r="M374" t="b">
+        <v>1</v>
+      </c>
+      <c r="O374">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="375" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B375" t="s">
+        <v>387</v>
+      </c>
+      <c r="K375" t="b">
+        <v>0</v>
+      </c>
+      <c r="L375" t="b">
+        <v>0</v>
+      </c>
+      <c r="M375" t="b">
+        <v>1</v>
+      </c>
+      <c r="O375">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="376" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B376" t="s">
+        <v>388</v>
+      </c>
+      <c r="K376" t="b">
+        <v>0</v>
+      </c>
+      <c r="L376" t="b">
+        <v>0</v>
+      </c>
+      <c r="M376" t="b">
+        <v>1</v>
+      </c>
+      <c r="O376">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="377" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B377" t="s">
+        <v>389</v>
+      </c>
+      <c r="K377" t="b">
+        <v>0</v>
+      </c>
+      <c r="L377" t="b">
+        <v>0</v>
+      </c>
+      <c r="M377" t="b">
+        <v>1</v>
+      </c>
+      <c r="O377">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="378" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B378" t="s">
+        <v>390</v>
+      </c>
+      <c r="K378" t="b">
+        <v>0</v>
+      </c>
+      <c r="L378" t="b">
+        <v>0</v>
+      </c>
+      <c r="M378" t="b">
+        <v>1</v>
+      </c>
+      <c r="O378">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="379" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B379" t="s">
+        <v>391</v>
+      </c>
+      <c r="K379" t="b">
+        <v>0</v>
+      </c>
+      <c r="L379" t="b">
+        <v>0</v>
+      </c>
+      <c r="M379" t="b">
+        <v>1</v>
+      </c>
+      <c r="O379">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="380" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B380" t="s">
+        <v>392</v>
+      </c>
+      <c r="K380" t="b">
+        <v>0</v>
+      </c>
+      <c r="L380" t="b">
+        <v>0</v>
+      </c>
+      <c r="M380" t="b">
+        <v>1</v>
+      </c>
+      <c r="O380">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="381" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B381" t="s">
+        <v>393</v>
+      </c>
+      <c r="K381" t="b">
+        <v>0</v>
+      </c>
+      <c r="L381" t="b">
+        <v>0</v>
+      </c>
+      <c r="M381" t="b">
+        <v>1</v>
+      </c>
+      <c r="O381">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="382" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B382" t="s">
+        <v>394</v>
+      </c>
+      <c r="K382" t="b">
+        <v>0</v>
+      </c>
+      <c r="L382" t="b">
+        <v>0</v>
+      </c>
+      <c r="M382" t="b">
+        <v>1</v>
+      </c>
+      <c r="O382">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="383" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B383" t="s">
+        <v>395</v>
+      </c>
+      <c r="K383" t="b">
+        <v>0</v>
+      </c>
+      <c r="L383" t="b">
+        <v>0</v>
+      </c>
+      <c r="M383" t="b">
+        <v>1</v>
+      </c>
+      <c r="O383">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="384" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B384" t="s">
+        <v>396</v>
+      </c>
+      <c r="K384" t="b">
+        <v>0</v>
+      </c>
+      <c r="L384" t="b">
+        <v>0</v>
+      </c>
+      <c r="M384" t="b">
+        <v>1</v>
+      </c>
+      <c r="O384">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="385" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B385" t="s">
+        <v>397</v>
+      </c>
+      <c r="K385" t="b">
+        <v>0</v>
+      </c>
+      <c r="L385" t="b">
+        <v>0</v>
+      </c>
+      <c r="M385" t="b">
+        <v>1</v>
+      </c>
+      <c r="O385">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="386" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B386" t="s">
+        <v>398</v>
+      </c>
+      <c r="K386" t="b">
+        <v>0</v>
+      </c>
+      <c r="L386" t="b">
+        <v>0</v>
+      </c>
+      <c r="M386" t="b">
+        <v>1</v>
+      </c>
+      <c r="O386">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="387" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B387" t="s">
+        <v>399</v>
+      </c>
+      <c r="K387" t="b">
+        <v>0</v>
+      </c>
+      <c r="L387" t="b">
+        <v>0</v>
+      </c>
+      <c r="M387" t="b">
+        <v>1</v>
+      </c>
+      <c r="O387">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="388" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B388" t="s">
+        <v>400</v>
+      </c>
+      <c r="K388" t="b">
+        <v>0</v>
+      </c>
+      <c r="L388" t="b">
+        <v>0</v>
+      </c>
+      <c r="M388" t="b">
+        <v>1</v>
+      </c>
+      <c r="O388">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="389" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B389" t="s">
+        <v>401</v>
+      </c>
+      <c r="K389" t="b">
+        <v>0</v>
+      </c>
+      <c r="L389" t="b">
+        <v>0</v>
+      </c>
+      <c r="M389" t="b">
+        <v>1</v>
+      </c>
+      <c r="O389">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="390" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B390" t="s">
+        <v>402</v>
+      </c>
+      <c r="K390" t="b">
+        <v>0</v>
+      </c>
+      <c r="L390" t="b">
+        <v>0</v>
+      </c>
+      <c r="M390" t="b">
+        <v>1</v>
+      </c>
+      <c r="O390">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="391" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B391" t="s">
+        <v>403</v>
+      </c>
+      <c r="K391" t="b">
+        <v>0</v>
+      </c>
+      <c r="L391" t="b">
+        <v>0</v>
+      </c>
+      <c r="M391" t="b">
+        <v>1</v>
+      </c>
+      <c r="O391">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="392" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B392" t="s">
+        <v>404</v>
+      </c>
+      <c r="K392" t="b">
+        <v>0</v>
+      </c>
+      <c r="L392" t="b">
+        <v>0</v>
+      </c>
+      <c r="M392" t="b">
+        <v>1</v>
+      </c>
+      <c r="O392">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="393" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B393" t="s">
+        <v>405</v>
+      </c>
+      <c r="K393" t="b">
+        <v>0</v>
+      </c>
+      <c r="L393" t="b">
+        <v>0</v>
+      </c>
+      <c r="M393" t="b">
+        <v>1</v>
+      </c>
+      <c r="O393">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="394" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B394" t="s">
+        <v>406</v>
+      </c>
+      <c r="K394" t="b">
+        <v>0</v>
+      </c>
+      <c r="L394" t="b">
+        <v>0</v>
+      </c>
+      <c r="M394" t="b">
+        <v>1</v>
+      </c>
+      <c r="O394">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="395" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B395" t="s">
+        <v>407</v>
+      </c>
+      <c r="K395" t="b">
+        <v>0</v>
+      </c>
+      <c r="L395" t="b">
+        <v>0</v>
+      </c>
+      <c r="M395" t="b">
+        <v>1</v>
+      </c>
+      <c r="O395">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="396" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B396" t="s">
+        <v>408</v>
+      </c>
+      <c r="K396" t="b">
+        <v>0</v>
+      </c>
+      <c r="L396" t="b">
+        <v>0</v>
+      </c>
+      <c r="M396" t="b">
+        <v>1</v>
+      </c>
+      <c r="O396">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="397" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B397" t="s">
+        <v>409</v>
+      </c>
+      <c r="K397" t="b">
+        <v>0</v>
+      </c>
+      <c r="L397" t="b">
+        <v>0</v>
+      </c>
+      <c r="M397" t="b">
+        <v>1</v>
+      </c>
+      <c r="O397">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="398" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B398" t="s">
+        <v>410</v>
+      </c>
+      <c r="K398" t="b">
+        <v>0</v>
+      </c>
+      <c r="L398" t="b">
+        <v>0</v>
+      </c>
+      <c r="M398" t="b">
+        <v>1</v>
+      </c>
+      <c r="O398">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="399" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B399" t="s">
+        <v>411</v>
+      </c>
+      <c r="K399" t="b">
+        <v>0</v>
+      </c>
+      <c r="L399" t="b">
+        <v>0</v>
+      </c>
+      <c r="M399" t="b">
+        <v>1</v>
+      </c>
+      <c r="O399">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="400" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B400" t="s">
+        <v>412</v>
+      </c>
+      <c r="K400" t="b">
+        <v>0</v>
+      </c>
+      <c r="L400" t="b">
+        <v>0</v>
+      </c>
+      <c r="M400" t="b">
+        <v>1</v>
+      </c>
+      <c r="O400">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="401" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B401" t="s">
+        <v>413</v>
+      </c>
+      <c r="K401" t="b">
+        <v>0</v>
+      </c>
+      <c r="L401" t="b">
+        <v>0</v>
+      </c>
+      <c r="M401" t="b">
+        <v>1</v>
+      </c>
+      <c r="O401">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="402" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B402" t="s">
+        <v>414</v>
+      </c>
+      <c r="K402" t="b">
+        <v>0</v>
+      </c>
+      <c r="L402" t="b">
+        <v>0</v>
+      </c>
+      <c r="M402" t="b">
+        <v>1</v>
+      </c>
+      <c r="O402">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="403" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B403" t="s">
+        <v>415</v>
+      </c>
+      <c r="K403" t="b">
+        <v>0</v>
+      </c>
+      <c r="L403" t="b">
+        <v>0</v>
+      </c>
+      <c r="M403" t="b">
+        <v>1</v>
+      </c>
+      <c r="O403">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="404" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B404" t="s">
+        <v>416</v>
+      </c>
+      <c r="K404" t="b">
+        <v>0</v>
+      </c>
+      <c r="L404" t="b">
+        <v>0</v>
+      </c>
+      <c r="M404" t="b">
+        <v>1</v>
+      </c>
+      <c r="O404">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="405" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B405" t="s">
+        <v>417</v>
+      </c>
+      <c r="K405" t="b">
+        <v>0</v>
+      </c>
+      <c r="L405" t="b">
+        <v>0</v>
+      </c>
+      <c r="M405" t="b">
+        <v>1</v>
+      </c>
+      <c r="O405">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="406" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B406" t="s">
+        <v>418</v>
+      </c>
+      <c r="K406" t="b">
+        <v>0</v>
+      </c>
+      <c r="L406" t="b">
+        <v>0</v>
+      </c>
+      <c r="M406" t="b">
+        <v>1</v>
+      </c>
+      <c r="O406">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="407" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B407" t="s">
+        <v>419</v>
+      </c>
+      <c r="K407" t="b">
+        <v>0</v>
+      </c>
+      <c r="L407" t="b">
+        <v>0</v>
+      </c>
+      <c r="M407" t="b">
+        <v>1</v>
+      </c>
+      <c r="O407">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="408" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B408" t="s">
+        <v>420</v>
+      </c>
+      <c r="K408" t="b">
+        <v>0</v>
+      </c>
+      <c r="L408" t="b">
+        <v>0</v>
+      </c>
+      <c r="M408" t="b">
+        <v>1</v>
+      </c>
+      <c r="O408">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="409" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B409" t="s">
+        <v>421</v>
+      </c>
+      <c r="K409" t="b">
+        <v>0</v>
+      </c>
+      <c r="L409" t="b">
+        <v>0</v>
+      </c>
+      <c r="M409" t="b">
+        <v>1</v>
+      </c>
+      <c r="O409">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="410" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B410" t="s">
+        <v>422</v>
+      </c>
+      <c r="K410" t="b">
+        <v>0</v>
+      </c>
+      <c r="L410" t="b">
+        <v>0</v>
+      </c>
+      <c r="M410" t="b">
+        <v>1</v>
+      </c>
+      <c r="O410">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="411" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B411" t="s">
+        <v>423</v>
+      </c>
+      <c r="K411" t="b">
+        <v>0</v>
+      </c>
+      <c r="L411" t="b">
+        <v>0</v>
+      </c>
+      <c r="M411" t="b">
+        <v>1</v>
+      </c>
+      <c r="O411">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
